--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -1,29 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\github\AIM_CW_PSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C34C71D-1BAA-4F78-930B-FF57411C881D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC78EA-1B93-4874-9B3A-11D2F61F6BB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="1160" windowWidth="14070" windowHeight="7360"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="best-feasible-slns" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="277">
-  <si>
-    <t>LP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="275">
   <si>
     <t>Problem</t>
   </si>
@@ -845,10 +853,6 @@
   </si>
   <si>
     <t>best_known</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>own</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -859,7 +863,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -1813,469 +1817,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.08203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>17182</v>
+        <v>18032</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>0.29527090767400843</v>
+        <v>0.26040769451622164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>20096</v>
+        <v>17688</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>0.17211831589354865</v>
+        <v>0.27131910686331051</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>16803</v>
+        <v>19979</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.28652711137531317</v>
+        <v>0.15167084200246275</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>21086</v>
+        <v>19328</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0.1040197161553497</v>
+        <v>0.17872014957083368</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>18660</v>
+        <v>20160</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0.22220832812304614</v>
+        <v>0.15968488183068652</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>20424</v>
+        <v>18758</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.17019461260309593</v>
+        <v>0.23788241985942388</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>20300</v>
+        <v>19156</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.20675237388144269</v>
+        <v>0.25145558985580868</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1">
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>16075</v>
+        <v>17286</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.3133276377616403</v>
+        <v>0.26159760785988895</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>17259</v>
+        <v>19233</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0.28728939544103071</v>
+        <v>0.20577304261645193</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>20011</v>
+        <v>17564</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0.1802466101347753</v>
+        <v>0.28048830445291056</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>31864</v>
+        <v>32381</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>0.25476530158804406</v>
+        <v>0.24267371424562059</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>34706</v>
+        <v>34748</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.18425196850393702</v>
+        <v>0.18326477846985545</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>34529</v>
+        <v>32058</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>0.17725409836065573</v>
+        <v>0.23613229126953869</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>37678</v>
+        <v>38000</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0.16438234641827457</v>
+        <v>0.15724107340873808</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>36210</v>
+        <v>34363</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>0.14230896773887916</v>
+        <v>0.18605807949215974</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>34035</v>
+        <v>32627</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0.20714235795653085</v>
+        <v>0.23994222750250424</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>33941</v>
+        <v>34391</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>0.19205408364874194</v>
+        <v>0.18134209336094648</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>38142</v>
+        <v>38625</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0.15277654375832964</v>
+        <v>0.14204797867614394</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>34540</v>
+        <v>36846</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>0.20489859809857047</v>
+        <v>0.15181510554545244</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>36305</v>
+        <v>38411</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>0.18514611482695156</v>
+        <v>0.13787763163801231</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>54562</v>
+        <v>52739</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>8.792751830430276E-2</v>
+        <v>0.1184012570626191</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>58307</v>
+        <v>57768</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>6.07915465279232E-2</v>
+        <v>6.9473752033633485E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>54721</v>
+        <v>53179</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>8.4963713588174311E-2</v>
+        <v>0.11074880438781312</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>55094</v>
+        <v>53988</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>8.9039170621207364E-2</v>
+        <v>0.10732651002827427</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>56219</v>
+        <v>55235</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>7.9749881324581356E-2</v>
+        <v>9.5857000212797305E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
         <v>58959</v>
       </c>
+      <c r="C27" s="1">
+        <v>55911</v>
+      </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5.1696941942705951E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
         <v>61538</v>
       </c>
+      <c r="C28" s="1">
+        <v>57381</v>
+      </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6.7551756638174781E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1">
         <v>61520</v>
       </c>
+      <c r="C29" s="1">
+        <v>53632</v>
+      </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1282184655396619</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1">
         <v>59453</v>
       </c>
+      <c r="C30" s="1">
+        <v>52615</v>
+      </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.11501522210821993</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="1">
         <v>59965</v>
       </c>
+      <c r="C31" s="1">
+        <v>56737</v>
+      </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5.3831401650963062E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1">
         <v>59312</v>
@@ -2287,7 +2303,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>61472</v>
@@ -2299,7 +2315,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>62130</v>
@@ -2311,7 +2327,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1">
         <v>59446</v>
@@ -2323,7 +2339,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1">
         <v>58951</v>
@@ -2335,7 +2351,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>60056</v>
@@ -2347,7 +2363,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>60414</v>
@@ -2359,7 +2375,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>61472</v>
@@ -2371,7 +2387,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>61885</v>
@@ -2383,7 +2399,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>58959</v>
@@ -2395,7 +2411,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
         <v>109109</v>
@@ -2407,7 +2423,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>109841</v>
@@ -2419,7 +2435,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1">
         <v>108489</v>
@@ -2431,7 +2447,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>109383</v>
@@ -2443,7 +2459,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>110720</v>
@@ -2455,7 +2471,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1">
         <v>110256</v>
@@ -2467,7 +2483,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1">
         <v>109016</v>
@@ -2479,7 +2495,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>109037</v>
@@ -2491,7 +2507,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>109957</v>
@@ -2503,7 +2519,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
         <v>107038</v>
@@ -2515,7 +2531,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1">
         <v>149659</v>
@@ -2527,7 +2543,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1">
         <v>155940</v>
@@ -2539,7 +2555,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1">
         <v>149316</v>
@@ -2551,7 +2567,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1">
         <v>152130</v>
@@ -2563,7 +2579,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1">
         <v>150353</v>
@@ -2575,7 +2591,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1">
         <v>150045</v>
@@ -2587,7 +2603,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1">
         <v>148607</v>
@@ -2599,7 +2615,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1">
         <v>149772</v>
@@ -2611,7 +2627,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1">
         <v>155075</v>
@@ -2623,7 +2639,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1">
         <v>154662</v>
@@ -2635,7 +2651,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1">
         <v>120130</v>
@@ -2647,7 +2663,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1">
         <v>117837</v>
@@ -2659,7 +2675,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1">
         <v>121109</v>
@@ -2671,7 +2687,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
         <v>120798</v>
@@ -2683,7 +2699,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1">
         <v>122319</v>
@@ -2695,7 +2711,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1">
         <v>122007</v>
@@ -2707,7 +2723,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1">
         <v>119113</v>
@@ -2719,7 +2735,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1">
         <v>120568</v>
@@ -2731,7 +2747,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1">
         <v>121575</v>
@@ -2743,7 +2759,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1">
         <v>120699</v>
@@ -2755,7 +2771,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1">
         <v>218422</v>
@@ -2767,7 +2783,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>221191</v>
@@ -2779,7 +2795,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1">
         <v>217534</v>
@@ -2791,7 +2807,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1">
         <v>223558</v>
@@ -2803,7 +2819,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1">
         <v>218962</v>
@@ -2815,7 +2831,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
         <v>220514</v>
@@ -2827,7 +2843,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
         <v>219987</v>
@@ -2839,7 +2855,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1">
         <v>218194</v>
@@ -2851,7 +2867,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1">
         <v>216976</v>
@@ -2863,7 +2879,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1">
         <v>219693</v>
@@ -2875,7 +2891,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1">
         <v>295828</v>
@@ -2887,7 +2903,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1">
         <v>308077</v>
@@ -2899,7 +2915,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>299796</v>
@@ -2911,7 +2927,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1">
         <v>306476</v>
@@ -2923,7 +2939,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1">
         <v>300342</v>
@@ -2935,7 +2951,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1">
         <v>302560</v>
@@ -2947,7 +2963,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1">
         <v>301322</v>
@@ -2959,7 +2975,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1">
         <v>306430</v>
@@ -2971,7 +2987,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1">
         <v>302814</v>
@@ -2983,7 +2999,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1">
         <v>299904</v>
@@ -2995,7 +3011,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1">
         <v>23064</v>
@@ -3007,7 +3023,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1">
         <v>22801</v>
@@ -3019,7 +3035,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1">
         <v>22131</v>
@@ -3031,7 +3047,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1">
         <v>22772</v>
@@ -3043,7 +3059,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1">
         <v>22751</v>
@@ -3055,7 +3071,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1">
         <v>22777</v>
@@ -3067,7 +3083,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1">
         <v>21875</v>
@@ -3079,7 +3095,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1">
         <v>22635</v>
@@ -3091,7 +3107,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1">
         <v>22511</v>
@@ -3103,7 +3119,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1">
         <v>22702</v>
@@ -3115,7 +3131,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1">
         <v>41395</v>
@@ -3127,7 +3143,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1">
         <v>42344</v>
@@ -3139,7 +3155,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1">
         <v>42401</v>
@@ -3151,7 +3167,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1">
         <v>45624</v>
@@ -3163,7 +3179,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1">
         <v>41884</v>
@@ -3175,7 +3191,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1">
         <v>42995</v>
@@ -3187,7 +3203,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1">
         <v>43559</v>
@@ -3199,7 +3215,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1">
         <v>42970</v>
@@ -3211,7 +3227,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1">
         <v>42212</v>
@@ -3223,7 +3239,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1">
         <v>41207</v>
@@ -3235,7 +3251,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1">
         <v>57375</v>
@@ -3247,7 +3263,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1">
         <v>58978</v>
@@ -3259,7 +3275,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1">
         <v>58391</v>
@@ -3271,7 +3287,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1">
         <v>61966</v>
@@ -3283,7 +3299,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1">
         <v>60803</v>
@@ -3295,7 +3311,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1">
         <v>61437</v>
@@ -3307,7 +3323,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1">
         <v>56377</v>
@@ -3319,7 +3335,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1">
         <v>59391</v>
@@ -3331,7 +3347,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1">
         <v>60205</v>
@@ -3343,7 +3359,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1">
         <v>60633</v>
@@ -3355,7 +3371,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1">
         <v>59187</v>
@@ -3367,7 +3383,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="1">
         <v>58662</v>
@@ -3379,7 +3395,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="1">
         <v>58094</v>
@@ -3391,7 +3407,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="1">
         <v>61000</v>
@@ -3403,7 +3419,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="1">
         <v>58092</v>
@@ -3415,7 +3431,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="1">
         <v>58803</v>
@@ -3427,7 +3443,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="1">
         <v>58607</v>
@@ -3439,7 +3455,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="1">
         <v>58917</v>
@@ -3451,7 +3467,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1">
         <v>59384</v>
@@ -3463,7 +3479,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="1">
         <v>59193</v>
@@ -3475,7 +3491,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="1">
         <v>110863</v>
@@ -3487,7 +3503,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="1">
         <v>108659</v>
@@ -3499,7 +3515,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="1">
         <v>108932</v>
@@ -3511,7 +3527,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="1">
         <v>110037</v>
@@ -3523,7 +3539,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="1">
         <v>108423</v>
@@ -3535,7 +3551,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="1">
         <v>110841</v>
@@ -3547,7 +3563,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="1">
         <v>106075</v>
@@ -3559,7 +3575,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="1">
         <v>106686</v>
@@ -3571,7 +3587,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="1">
         <v>109825</v>
@@ -3583,7 +3599,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="1">
         <v>106723</v>
@@ -3595,7 +3611,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="1">
         <v>151790</v>
@@ -3607,7 +3623,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="1">
         <v>148772</v>
@@ -3619,7 +3635,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="1">
         <v>151900</v>
@@ -3631,7 +3647,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="1">
         <v>151275</v>
@@ -3643,7 +3659,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="1">
         <v>151948</v>
@@ -3655,7 +3671,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="1">
         <v>152109</v>
@@ -3667,7 +3683,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="1">
         <v>153131</v>
@@ -3679,7 +3695,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="1">
         <v>153520</v>
@@ -3691,7 +3707,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="1">
         <v>149155</v>
@@ -3703,7 +3719,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="1">
         <v>149704</v>
@@ -3715,7 +3731,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="1">
         <v>117726</v>
@@ -3727,7 +3743,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="1">
         <v>119139</v>
@@ -3739,7 +3755,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="1">
         <v>119159</v>
@@ -3751,7 +3767,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="1">
         <v>118802</v>
@@ -3763,7 +3779,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156" s="1">
         <v>116434</v>
@@ -3775,7 +3791,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="1">
         <v>119454</v>
@@ -3787,7 +3803,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="1">
         <v>119749</v>
@@ -3799,7 +3815,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159" s="1">
         <v>118288</v>
@@ -3811,7 +3827,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="1">
         <v>117779</v>
@@ -3823,7 +3839,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="1">
         <v>119125</v>
@@ -3835,7 +3851,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" s="1">
         <v>217318</v>
@@ -3847,7 +3863,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" s="1">
         <v>219022</v>
@@ -3859,7 +3875,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="1">
         <v>217772</v>
@@ -3871,7 +3887,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="1">
         <v>216802</v>
@@ -3883,7 +3899,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="1">
         <v>213809</v>
@@ -3895,7 +3911,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="1">
         <v>215013</v>
@@ -3907,7 +3923,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="1">
         <v>217896</v>
@@ -3919,7 +3935,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="1">
         <v>219949</v>
@@ -3931,7 +3947,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="1">
         <v>214332</v>
@@ -3943,7 +3959,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="1">
         <v>220833</v>
@@ -3955,7 +3971,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="1">
         <v>304344</v>
@@ -3967,7 +3983,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="1">
         <v>302332</v>
@@ -3979,7 +3995,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="1">
         <v>302354</v>
@@ -3991,7 +4007,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="1">
         <v>300743</v>
@@ -4003,7 +4019,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="1">
         <v>304344</v>
@@ -4015,7 +4031,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="1">
         <v>301730</v>
@@ -4027,7 +4043,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="1">
         <v>304949</v>
@@ -4039,7 +4055,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="1">
         <v>296437</v>
@@ -4051,7 +4067,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="1">
         <v>301313</v>
@@ -4063,7 +4079,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="1">
         <v>307014</v>
@@ -4075,7 +4091,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="1">
         <v>21946</v>
@@ -4087,7 +4103,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="1">
         <v>21716</v>
@@ -4099,7 +4115,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="1">
         <v>20754</v>
@@ -4111,7 +4127,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="1">
         <v>21464</v>
@@ -4123,7 +4139,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="1">
         <v>21814</v>
@@ -4135,7 +4151,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="1">
         <v>22176</v>
@@ -4147,7 +4163,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="1">
         <v>21799</v>
@@ -4159,7 +4175,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="1">
         <v>21397</v>
@@ -4171,7 +4187,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="1">
         <v>22493</v>
@@ -4183,7 +4199,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="1">
         <v>20983</v>
@@ -4195,7 +4211,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="1">
         <v>40767</v>
@@ -4207,7 +4223,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="1">
         <v>41304</v>
@@ -4219,7 +4235,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="1">
         <v>41560</v>
@@ -4231,7 +4247,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="1">
         <v>41041</v>
@@ -4243,7 +4259,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="1">
         <v>40872</v>
@@ -4255,7 +4271,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="1">
         <v>41058</v>
@@ -4267,7 +4283,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="1">
         <v>41062</v>
@@ -4279,7 +4295,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="1">
         <v>42719</v>
@@ -4291,7 +4307,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="1">
         <v>42230</v>
@@ -4303,7 +4319,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="1">
         <v>41700</v>
@@ -4315,7 +4331,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="1">
         <v>57494</v>
@@ -4327,7 +4343,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="1">
         <v>60027</v>
@@ -4339,7 +4355,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="1">
         <v>58025</v>
@@ -4351,7 +4367,7 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="1">
         <v>60776</v>
@@ -4363,7 +4379,7 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="1">
         <v>58884</v>
@@ -4375,7 +4391,7 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="1">
         <v>60011</v>
@@ -4387,7 +4403,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="1">
         <v>58132</v>
@@ -4399,7 +4415,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="1">
         <v>59064</v>
@@ -4411,7 +4427,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="1">
         <v>58975</v>
@@ -4423,7 +4439,7 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="1">
         <v>60603</v>
@@ -4435,7 +4451,7 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="1">
         <v>56693</v>
@@ -4447,7 +4463,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="1">
         <v>58318</v>
@@ -4459,7 +4475,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="1">
         <v>56553</v>
@@ -4471,7 +4487,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B215" s="1">
         <v>56863</v>
@@ -4483,7 +4499,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B216" s="1">
         <v>56629</v>
@@ -4495,7 +4511,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B217" s="1">
         <v>57119</v>
@@ -4507,7 +4523,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B218" s="1">
         <v>56292</v>
@@ -4519,7 +4535,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B219" s="1">
         <v>56403</v>
@@ -4531,7 +4547,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B220" s="1">
         <v>57442</v>
@@ -4543,7 +4559,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B221" s="1">
         <v>56447</v>
@@ -4555,7 +4571,7 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B222" s="1">
         <v>107689</v>
@@ -4567,7 +4583,7 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B223" s="1">
         <v>108338</v>
@@ -4579,7 +4595,7 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B224" s="1">
         <v>106385</v>
@@ -4591,7 +4607,7 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B225" s="1">
         <v>106796</v>
@@ -4603,7 +4619,7 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B226" s="1">
         <v>107396</v>
@@ -4615,7 +4631,7 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B227" s="1">
         <v>107246</v>
@@ -4627,7 +4643,7 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B228" s="1">
         <v>106308</v>
@@ -4639,7 +4655,7 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B229" s="1">
         <v>103993</v>
@@ -4651,7 +4667,7 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B230" s="1">
         <v>106835</v>
@@ -4663,7 +4679,7 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B231" s="1">
         <v>105751</v>
@@ -4675,7 +4691,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B232" s="1">
         <v>150083</v>
@@ -4687,7 +4703,7 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B233" s="1">
         <v>149907</v>
@@ -4699,7 +4715,7 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B234" s="1">
         <v>152993</v>
@@ -4711,7 +4727,7 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B235" s="1">
         <v>153169</v>
@@ -4723,7 +4739,7 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B236" s="1">
         <v>150287</v>
@@ -4735,7 +4751,7 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="1">
         <v>148544</v>
@@ -4747,7 +4763,7 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B238" s="1">
         <v>147471</v>
@@ -4759,7 +4775,7 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B239" s="1">
         <v>152841</v>
@@ -4771,7 +4787,7 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B240" s="1">
         <v>149568</v>
@@ -4783,7 +4799,7 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B241" s="1">
         <v>149572</v>
@@ -4795,7 +4811,7 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B242" s="1">
         <v>115868</v>
@@ -4807,7 +4823,7 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B243" s="1">
         <v>114667</v>
@@ -4819,7 +4835,7 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B244" s="1">
         <v>116661</v>
@@ -4831,7 +4847,7 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B245" s="1">
         <v>115237</v>
@@ -4843,7 +4859,7 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B246" s="1">
         <v>116353</v>
@@ -4855,7 +4871,7 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B247" s="1">
         <v>115604</v>
@@ -4867,7 +4883,7 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B248" s="1">
         <v>113952</v>
@@ -4879,7 +4895,7 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="1">
         <v>114199</v>
@@ -4891,7 +4907,7 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B250" s="1">
         <v>115247</v>
@@ -4903,7 +4919,7 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B251" s="1">
         <v>116947</v>
@@ -4915,7 +4931,7 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B252" s="1">
         <v>217995</v>
@@ -4927,7 +4943,7 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B253" s="1">
         <v>214534</v>
@@ -4939,7 +4955,7 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B254" s="1">
         <v>215854</v>
@@ -4951,7 +4967,7 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B255" s="1">
         <v>217836</v>
@@ -4963,7 +4979,7 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B256" s="1">
         <v>215566</v>
@@ -4975,7 +4991,7 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257" s="1">
         <v>215762</v>
@@ -4987,7 +5003,7 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B258" s="1">
         <v>215772</v>
@@ -4999,7 +5015,7 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259" s="1">
         <v>216336</v>
@@ -5011,7 +5027,7 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B260" s="1">
         <v>217290</v>
@@ -5023,7 +5039,7 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B261" s="1">
         <v>214624</v>
@@ -5035,7 +5051,7 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B262" s="1">
         <v>301627</v>
@@ -5047,7 +5063,7 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B263" s="1">
         <v>299985</v>
@@ -5059,7 +5075,7 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B264" s="1">
         <v>304995</v>
@@ -5071,7 +5087,7 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B265" s="1">
         <v>301935</v>
@@ -5083,7 +5099,7 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B266" s="1">
         <v>304404</v>
@@ -5095,7 +5111,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B267" s="1">
         <v>296894</v>
@@ -5107,7 +5123,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B268" s="1">
         <v>303233</v>
@@ -5119,7 +5135,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B269" s="1">
         <v>306944</v>
@@ -5131,7 +5147,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B270" s="1">
         <v>303057</v>
@@ -5143,7 +5159,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B271" s="1">
         <v>300460</v>
@@ -5155,21 +5171,18 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B277" s="1">
         <v>24585.902721999999</v>
@@ -5177,7 +5190,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B278" s="1">
         <v>24538.208989999999</v>
@@ -5185,7 +5198,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B279" s="1">
         <v>23895.828927999999</v>
@@ -5193,7 +5206,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B280" s="1">
         <v>23724.138567999998</v>
@@ -5201,7 +5214,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B281" s="1">
         <v>24223.030317000001</v>
@@ -5209,7 +5222,7 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B282" s="1">
         <v>24884.237045999998</v>
@@ -5217,7 +5230,7 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B283" s="1">
         <v>25793.401838000002</v>
@@ -5225,7 +5238,7 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B284" s="1">
         <v>23657.882201</v>
@@ -5233,7 +5246,7 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B285" s="1">
         <v>24445.615444999999</v>
@@ -5241,7 +5254,7 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B286" s="1">
         <v>24635.691889000002</v>
@@ -5249,7 +5262,7 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B287" s="1">
         <v>42939.522301999998</v>
@@ -5257,7 +5270,7 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B288" s="1">
         <v>42706.702095000001</v>
@@ -5265,7 +5278,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B289" s="1">
         <v>42165.187167999997</v>
@@ -5273,7 +5286,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B290" s="1">
         <v>45347.074056999998</v>
@@ -5281,7 +5294,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B291" s="1">
         <v>42434.122537000003</v>
@@ -5289,7 +5302,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B292" s="1">
         <v>43082.231018999999</v>
@@ -5297,7 +5310,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B293" s="1">
         <v>42190.597805999998</v>
@@ -5305,7 +5318,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B294" s="1">
         <v>45265.473429999998</v>
@@ -5313,7 +5326,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B295" s="1">
         <v>43567.491237000002</v>
@@ -5321,7 +5334,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B296" s="1">
         <v>44796.625645</v>
@@ -5329,7 +5342,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B297" s="1">
         <v>60016.555160999997</v>
@@ -5337,7 +5350,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B298" s="1">
         <v>62228.221156</v>
@@ -5345,7 +5358,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B299" s="1">
         <v>59963.295743000002</v>
@@ -5353,7 +5366,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B300" s="1">
         <v>60644.210020999999</v>
@@ -5361,7 +5374,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B301" s="1">
         <v>61338.959181999999</v>
@@ -5369,7 +5382,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B302" s="1">
         <v>59161.868131000003</v>
@@ -5377,7 +5390,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B303" s="1">
         <v>61696.080880000001</v>
@@ -5385,7 +5398,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B304" s="1">
         <v>61727.455409000002</v>
@@ -5393,7 +5406,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B305" s="1">
         <v>59618.006304000002</v>
@@ -5401,7 +5414,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B306" s="1">
         <v>60242.912600000003</v>
@@ -5409,7 +5422,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B307" s="1">
         <v>59442.470292999998</v>
@@ -5417,7 +5430,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B308" s="1">
         <v>61629.336003999997</v>
@@ -5425,7 +5438,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B309" s="1">
         <v>62259.544636999999</v>
@@ -5433,7 +5446,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B310" s="1">
         <v>59578.227593000003</v>
@@ -5441,7 +5454,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B311" s="1">
         <v>59078.366431000002</v>
@@ -5449,7 +5462,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B312" s="1">
         <v>60238.933739</v>
@@ -5457,7 +5470,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B313" s="1">
         <v>60525.766833000001</v>
@@ -5465,7 +5478,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B314" s="1">
         <v>61638.399573000002</v>
@@ -5473,7 +5486,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B315" s="1">
         <v>62032.594706000003</v>
@@ -5481,7 +5494,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B316" s="1">
         <v>59050.473618000004</v>
@@ -5489,7 +5502,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B317" s="1">
         <v>109220.63965</v>
@@ -5497,7 +5510,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B318" s="1">
         <v>109960.33985</v>
@@ -5505,7 +5518,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B319" s="1">
         <v>108648.75672999999</v>
@@ -5513,7 +5526,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B320" s="1">
         <v>109510.79181</v>
@@ -5521,7 +5534,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B321" s="1">
         <v>110834.24357999999</v>
@@ -5529,7 +5542,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B322" s="1">
         <v>110366.83878000001</v>
@@ -5537,7 +5550,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B323" s="1">
         <v>109152.60655</v>
@@ -5545,7 +5558,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B324" s="1">
         <v>109137.66252</v>
@@ -5553,7 +5566,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B325" s="1">
         <v>110123.06381000001</v>
@@ -5561,7 +5574,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B326" s="1">
         <v>107162.11983</v>
@@ -5569,7 +5582,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B327" s="1">
         <v>149765.67313000001</v>
@@ -5577,7 +5590,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B328" s="1">
         <v>156084.26942</v>
@@ -5585,7 +5598,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B329" s="1">
         <v>149433.90229999999</v>
@@ -5593,7 +5606,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B330" s="1">
         <v>152244.81357999999</v>
@@ -5601,7 +5614,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B331" s="1">
         <v>150469.52640999999</v>
@@ -5609,7 +5622,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B332" s="1">
         <v>150132.74567999999</v>
@@ -5617,7 +5630,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B333" s="1">
         <v>148697.05841</v>
@@ -5625,7 +5638,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B334" s="1">
         <v>149906.63526000001</v>
@@ -5633,7 +5646,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B335" s="1">
         <v>155209.92436999999</v>
@@ -5641,7 +5654,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B336" s="1">
         <v>154818.79430000001</v>
@@ -5649,7 +5662,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B337" s="1">
         <v>120234.91673</v>
@@ -5657,7 +5670,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B338" s="1">
         <v>117955.16424</v>
@@ -5665,7 +5678,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B339" s="1">
         <v>121213.32587</v>
@@ -5673,7 +5686,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B340" s="1">
         <v>120888.52459</v>
@@ -5681,7 +5694,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B341" s="1">
         <v>122426.49395</v>
@@ -5689,7 +5702,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B342" s="1">
         <v>122125.97055</v>
@@ -5697,7 +5710,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B343" s="1">
         <v>119218.75799</v>
@@ -5705,7 +5718,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B344" s="1">
         <v>120643.12783</v>
@@ -5713,7 +5726,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B345" s="1">
         <v>121663.28075999999</v>
@@ -5721,7 +5734,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B346" s="1">
         <v>120800.67535999999</v>
@@ -5729,7 +5742,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B347" s="1">
         <v>218500.08325</v>
@@ -5737,7 +5750,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B348" s="1">
         <v>221272.40549999999</v>
@@ -5745,7 +5758,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B349" s="1">
         <v>217615.79702</v>
@@ -5753,7 +5766,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B350" s="1">
         <v>223653.20947</v>
@@ -5761,7 +5774,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B351" s="1">
         <v>219067.46666999999</v>
@@ -5769,7 +5782,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B352" s="1">
         <v>220616.96223999999</v>
@@ -5777,7 +5790,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B353" s="1">
         <v>220076.54782000001</v>
@@ -5785,7 +5798,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B354" s="1">
         <v>218282.70590999999</v>
@@ -5793,7 +5806,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B355" s="1">
         <v>217059.90359999999</v>
@@ -5801,7 +5814,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B356" s="1">
         <v>219812.82298</v>
@@ -5809,7 +5822,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B357" s="1">
         <v>295896.37696999998</v>
@@ -5817,7 +5830,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B358" s="1">
         <v>308157.59682999999</v>
@@ -5825,7 +5838,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B359" s="1">
         <v>299878.63506</v>
@@ -5833,7 +5846,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B360" s="1">
         <v>306554.12943999999</v>
@@ -5841,7 +5854,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B361" s="1">
         <v>300412.55797000002</v>
@@ -5849,7 +5862,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B362" s="1">
         <v>302661.75013</v>
@@ -5857,7 +5870,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B363" s="1">
         <v>301400.24536</v>
@@ -5865,7 +5878,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B364" s="1">
         <v>306517.27305999998</v>
@@ -5873,7 +5886,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B365" s="1">
         <v>302896.76134000003</v>
@@ -5881,7 +5894,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B366" s="1">
         <v>299973.71776000003</v>
@@ -5889,7 +5902,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B367" s="1">
         <v>23480.639351999998</v>
@@ -5897,7 +5910,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B368" s="1">
         <v>23220.685776999999</v>
@@ -5905,7 +5918,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B369" s="1">
         <v>22493.743573</v>
@@ -5913,7 +5926,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B370" s="1">
         <v>23087.472427000001</v>
@@ -5921,7 +5934,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B371" s="1">
         <v>23073.878253999999</v>
@@ -5929,7 +5942,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B372" s="1">
         <v>23053.487344000001</v>
@@ -5937,7 +5950,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B373" s="1">
         <v>22257.792599</v>
@@ -5945,7 +5958,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B374" s="1">
         <v>22964.168710999998</v>
@@ -5953,7 +5966,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B375" s="1">
         <v>22882.437795999998</v>
@@ -5961,7 +5974,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B376" s="1">
         <v>23090.584252000001</v>
@@ -5969,7 +5982,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B377" s="1">
         <v>41712.635958999999</v>
@@ -5977,7 +5990,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B378" s="1">
         <v>42597.319603999997</v>
@@ -5985,7 +5998,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B379" s="1">
         <v>42759.318604</v>
@@ -5993,7 +6006,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B380" s="1">
         <v>45959.363096000001</v>
@@ -6001,7 +6014,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B381" s="1">
         <v>42183.118254000001</v>
@@ -6009,7 +6022,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B382" s="1">
         <v>43377.962938999997</v>
@@ -6017,7 +6030,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B383" s="1">
         <v>43927.938964000001</v>
@@ -6025,7 +6038,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B384" s="1">
         <v>43335.827083999997</v>
@@ -6033,7 +6046,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B385" s="1">
         <v>42611.601297000001</v>
@@ -6041,7 +6054,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B386" s="1">
         <v>41542.78501</v>
@@ -6049,7 +6062,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B387" s="1">
         <v>57626.334327999997</v>
@@ -6057,7 +6070,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B388" s="1">
         <v>59268.561958999999</v>
@@ -6065,7 +6078,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B389" s="1">
         <v>58654.692432999997</v>
@@ -6073,7 +6086,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B390" s="1">
         <v>62202.247434999997</v>
@@ -6081,7 +6094,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B391" s="1">
         <v>61170.237371000003</v>
@@ -6089,7 +6102,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B392" s="1">
         <v>61688.389971999997</v>
@@ -6097,7 +6110,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B393" s="1">
         <v>56663.343754000001</v>
@@ -6105,7 +6118,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B394" s="1">
         <v>59663.685278999998</v>
@@ -6113,7 +6126,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B395" s="1">
         <v>60518.795131999999</v>
@@ -6121,7 +6134,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B396" s="1">
         <v>60986.057159999997</v>
@@ -6129,7 +6142,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B397" s="1">
         <v>59489.339237</v>
@@ -6137,7 +6150,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B398" s="1">
         <v>59024.301617999998</v>
@@ -6145,7 +6158,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B399" s="1">
         <v>58413.150128000001</v>
@@ -6153,7 +6166,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B400" s="1">
         <v>61262.996954000002</v>
@@ -6161,7 +6174,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B401" s="1">
         <v>58363.341571999998</v>
@@ -6169,7 +6182,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B402" s="1">
         <v>59052.327288</v>
@@ -6177,7 +6190,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B403" s="1">
         <v>58894.666664999997</v>
@@ -6185,7 +6198,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B404" s="1">
         <v>59204.526837999998</v>
@@ -6193,7 +6206,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B405" s="1">
         <v>59701.693112000001</v>
@@ -6201,7 +6214,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B406" s="1">
         <v>59495.159377999997</v>
@@ -6209,7 +6222,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B407" s="1">
         <v>111147.15300999999</v>
@@ -6217,7 +6230,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B408" s="1">
         <v>108947.61747</v>
@@ -6225,7 +6238,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B409" s="1">
         <v>109211.36646999999</v>
@@ -6233,7 +6246,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B410" s="1">
         <v>110306.49459</v>
@@ -6241,7 +6254,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B411" s="1">
         <v>108728.51736</v>
@@ -6249,7 +6262,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B412" s="1">
         <v>111106.79918</v>
@@ -6257,7 +6270,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B413" s="1">
         <v>106371.33258</v>
@@ -6265,7 +6278,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B414" s="1">
         <v>106922.7346</v>
@@ -6273,7 +6286,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B415" s="1">
         <v>110094.44233999999</v>
@@ -6281,7 +6294,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B416" s="1">
         <v>106973.0719</v>
@@ -6289,7 +6302,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B417" s="1">
         <v>152031.38662999999</v>
@@ -6297,7 +6310,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B418" s="1">
         <v>149021.6165</v>
@@ -6305,7 +6318,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B419" s="1">
         <v>152141.25987000001</v>
@@ -6313,7 +6326,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B420" s="1">
         <v>151490.02142999999</v>
@@ -6321,7 +6334,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B421" s="1">
         <v>152169.55171</v>
@@ -6329,7 +6342,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B422" s="1">
         <v>152326.75542</v>
@@ -6337,7 +6350,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B423" s="1">
         <v>153365.43619000001</v>
@@ -6345,7 +6358,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B424" s="1">
         <v>153765.16339</v>
@@ -6353,7 +6366,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B425" s="1">
         <v>149372.82629999999</v>
@@ -6361,7 +6374,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B426" s="1">
         <v>149916.72245</v>
@@ -6369,7 +6382,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B427" s="1">
         <v>118019.47688</v>
@@ -6377,7 +6390,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B428" s="1">
         <v>119437.28754999999</v>
@@ -6385,7 +6398,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B429" s="1">
         <v>119405.70001</v>
@@ -6393,7 +6406,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B430" s="1">
         <v>119066.0934</v>
@@ -6401,7 +6414,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B431" s="1">
         <v>116697.955</v>
@@ -6409,7 +6422,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B432" s="1">
         <v>119709.95427</v>
@@ -6417,7 +6430,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B433" s="1">
         <v>120033.31236</v>
@@ -6425,7 +6438,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B434" s="1">
         <v>118545.70561</v>
@@ -6433,7 +6446,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B435" s="1">
         <v>118001.59642</v>
@@ -6441,7 +6454,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B436" s="1">
         <v>119440.64466000001</v>
@@ -6449,7 +6462,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B437" s="1">
         <v>217552.91667000001</v>
@@ -6457,7 +6470,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B438" s="1">
         <v>219255.19172999999</v>
@@ -6465,7 +6478,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B439" s="1">
         <v>217987.78166000001</v>
@@ -6473,7 +6486,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B440" s="1">
         <v>217040.66998999999</v>
@@ -6481,7 +6494,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B441" s="1">
         <v>214010.31383999999</v>
@@ -6489,7 +6502,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B442" s="1">
         <v>215261.33241</v>
@@ -6497,7 +6510,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B443" s="1">
         <v>218109.19852000001</v>
@@ -6505,7 +6518,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B444" s="1">
         <v>220175.55900000001</v>
@@ -6513,7 +6526,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B445" s="1">
         <v>214561.04136999999</v>
@@ -6521,7 +6534,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B446" s="1">
         <v>221083.63678</v>
@@ -6529,7 +6542,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B447" s="1">
         <v>304555.03161000001</v>
@@ -6537,7 +6550,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B448" s="1">
         <v>302552.96928999998</v>
@@ -6545,7 +6558,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B449" s="1">
         <v>302581.54376999999</v>
@@ -6553,7 +6566,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B450" s="1">
         <v>300956.72281000001</v>
@@ -6561,7 +6574,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B451" s="1">
         <v>304584.73485000001</v>
@@ -6569,7 +6582,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B452" s="1">
         <v>301952.51569999999</v>
@@ -6577,7 +6590,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B453" s="1">
         <v>305139.72652000003</v>
@@ -6585,7 +6598,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B454" s="1">
         <v>296636.57338000002</v>
@@ -6593,7 +6606,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B455" s="1">
         <v>301547.62738000002</v>
@@ -6601,7 +6614,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B456" s="1">
         <v>307249.99466999999</v>
@@ -6609,7 +6622,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B457" s="1">
         <v>22579.069211999999</v>
@@ -6617,7 +6630,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B458" s="1">
         <v>22367.844631</v>
@@ -6625,7 +6638,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B459" s="1">
         <v>21270.501365</v>
@@ -6633,7 +6646,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B460" s="1">
         <v>22049.634468</v>
@@ -6641,7 +6654,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B461" s="1">
         <v>22531.454668999999</v>
@@ -6649,7 +6662,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B462" s="1">
         <v>22910.072356000001</v>
@@ -6657,7 +6670,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B463" s="1">
         <v>22530.091561000001</v>
@@ -6665,7 +6678,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B464" s="1">
         <v>22088.758696000001</v>
@@ -6673,7 +6686,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B465" s="1">
         <v>23201.206905999999</v>
@@ -6681,7 +6694,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B466" s="1">
         <v>21524.818139999999</v>
@@ -6689,7 +6702,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B467" s="1">
         <v>41276.362342</v>
@@ -6697,7 +6710,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B468" s="1">
         <v>41866.733658999998</v>
@@ -6705,7 +6718,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B469" s="1">
         <v>42232.960639999998</v>
@@ -6713,7 +6726,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B470" s="1">
         <v>41634.875035999998</v>
@@ -6721,7 +6734,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B471" s="1">
         <v>41410.884850000002</v>
@@ -6729,7 +6742,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B472" s="1">
         <v>41603.163557</v>
@@ -6737,7 +6750,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B473" s="1">
         <v>41616.130334000001</v>
@@ -6745,7 +6758,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B474" s="1">
         <v>43388.049309000002</v>
@@ -6753,7 +6766,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B475" s="1">
         <v>42656.562925999999</v>
@@ -6761,7 +6774,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B476" s="1">
         <v>42262.702367999998</v>
@@ -6769,7 +6782,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B477" s="1">
         <v>57987.771072000003</v>
@@ -6777,7 +6790,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B478" s="1">
         <v>60486.824868999996</v>
@@ -6785,7 +6798,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B479" s="1">
         <v>58541.843041</v>
@@ -6793,7 +6806,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B480" s="1">
         <v>61239.524289000001</v>
@@ -6801,7 +6814,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B481" s="1">
         <v>59380.820170999999</v>
@@ -6809,7 +6822,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B482" s="1">
         <v>60452.579963999997</v>
@@ -6817,7 +6830,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B483" s="1">
         <v>58635.340471000003</v>
@@ -6825,7 +6838,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B484" s="1">
         <v>59550.708673000001</v>
@@ -6833,7 +6846,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B485" s="1">
         <v>59520.220087000002</v>
@@ -6841,7 +6854,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B486" s="1">
         <v>61140.159137000002</v>
@@ -6849,7 +6862,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B487" s="1">
         <v>57430.148055999998</v>
@@ -6857,7 +6870,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B488" s="1">
         <v>59080.031354999999</v>
@@ -6865,7 +6878,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B489" s="1">
         <v>57176.741169000001</v>
@@ -6873,7 +6886,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B490" s="1">
         <v>57568.920301999999</v>
@@ -6881,7 +6894,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B491" s="1">
         <v>57277.695761000003</v>
@@ -6889,7 +6902,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B492" s="1">
         <v>57844.080772000001</v>
@@ -6897,7 +6910,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B493" s="1">
         <v>56922.694563999998</v>
@@ -6905,7 +6918,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B494" s="1">
         <v>57106.212878999999</v>
@@ -6913,7 +6926,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B495" s="1">
         <v>58097.727983999997</v>
@@ -6921,7 +6934,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B496" s="1">
         <v>57036.642112000001</v>
@@ -6929,7 +6942,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B497" s="1">
         <v>108258.06939</v>
@@ -6937,7 +6950,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B498" s="1">
         <v>108899.80003</v>
@@ -6945,7 +6958,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B499" s="1">
         <v>106905.71505</v>
@@ -6953,7 +6966,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B500" s="1">
         <v>107396.61414999999</v>
@@ -6961,7 +6974,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B501" s="1">
         <v>107954.09221</v>
@@ -6969,7 +6982,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B502" s="1">
         <v>107763.20907</v>
@@ -6977,7 +6990,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B503" s="1">
         <v>106850.85514</v>
@@ -6985,7 +6998,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B504" s="1">
         <v>104574.08643</v>
@@ -6993,7 +7006,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B505" s="1">
         <v>107373.84099</v>
@@ -7001,7 +7014,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B506" s="1">
         <v>106321.77906</v>
@@ -7009,7 +7022,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B507" s="1">
         <v>150574.31758999999</v>
@@ -7017,7 +7030,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B508" s="1">
         <v>150341.49611000001</v>
@@ -7025,7 +7038,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B509" s="1">
         <v>153434.28876</v>
@@ -7033,7 +7046,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B510" s="1">
         <v>153689.77129999999</v>
@@ -7041,7 +7054,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B511" s="1">
         <v>150697.72675</v>
@@ -7049,7 +7062,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B512" s="1">
         <v>148996.54436999999</v>
@@ -7057,7 +7070,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B513" s="1">
         <v>147914.67494999999</v>
@@ -7065,7 +7078,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B514" s="1">
         <v>153312.33569000001</v>
@@ -7073,7 +7086,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B515" s="1">
         <v>150037.90210000001</v>
@@ -7081,7 +7094,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B516" s="1">
         <v>150037.66185999999</v>
@@ -7089,7 +7102,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B517" s="1">
         <v>116619.00812</v>
@@ -7097,7 +7110,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B518" s="1">
         <v>115370.13003</v>
@@ -7105,7 +7118,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B519" s="1">
         <v>117342.45146</v>
@@ -7113,7 +7126,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B520" s="1">
         <v>115946.40475</v>
@@ -7121,7 +7134,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B521" s="1">
         <v>117079.28723</v>
@@ -7129,7 +7142,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B522" s="1">
         <v>116377.55190000001</v>
@@ -7137,7 +7150,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B523" s="1">
         <v>114689.65115999999</v>
@@ -7145,7 +7158,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B524" s="1">
         <v>114847.82825999999</v>
@@ -7153,7 +7166,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B525" s="1">
         <v>115902.60715</v>
@@ -7161,7 +7174,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B526" s="1">
         <v>117668.7711</v>
@@ -7169,7 +7182,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B527" s="1">
         <v>218601.52124</v>
@@ -7177,7 +7190,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B528" s="1">
         <v>215074.71096</v>
@@ -7185,7 +7198,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B529" s="1">
         <v>216401.06546000001</v>
@@ -7193,7 +7206,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B530" s="1">
         <v>218350.48329</v>
@@ -7201,7 +7214,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B531" s="1">
         <v>216094.50996</v>
@@ -7209,7 +7222,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B532" s="1">
         <v>216327.35471000001</v>
@@ -7217,7 +7230,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B533" s="1">
         <v>216376.30351</v>
@@ -7225,7 +7238,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B534" s="1">
         <v>217014.08903999999</v>
@@ -7233,7 +7246,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B535" s="1">
         <v>217839.18182999999</v>
@@ -7241,7 +7254,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B536" s="1">
         <v>215218.47532</v>
@@ -7249,7 +7262,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B537" s="1">
         <v>302038.75769</v>
@@ -7257,7 +7270,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B538" s="1">
         <v>300454.99589999998</v>
@@ -7265,7 +7278,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B539" s="1">
         <v>305501.20796000003</v>
@@ -7273,7 +7286,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B540" s="1">
         <v>302456.21344999998</v>
@@ -7281,7 +7294,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B541" s="1">
         <v>304901.35100000002</v>
@@ -7289,7 +7302,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B542" s="1">
         <v>297409.43728000001</v>
@@ -7297,7 +7310,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B543" s="1">
         <v>303765.88127000001</v>
@@ -7305,7 +7318,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B544" s="1">
         <v>307402.49604</v>
@@ -7313,7 +7326,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B545" s="1">
         <v>303605.92388999998</v>
@@ -7321,7 +7334,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B546" s="1">
         <v>301020.62978000002</v>

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC78EA-1B93-4874-9B3A-11D2F61F6BB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B09923A-A142-40C6-91AC-5B8FF46341AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1821,7 +1821,7 @@
   <dimension ref="A1:D546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1847,11 +1847,11 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>18032</v>
+        <v>16923</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>0.26040769451622164</v>
+        <v>0.30589393380091057</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1862,11 +1862,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>17688</v>
+        <v>18203</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>0.27131910686331051</v>
+        <v>0.25010299085441212</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1877,11 +1877,11 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>19979</v>
+        <v>19322</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.15167084200246275</v>
+        <v>0.17956774659250138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1892,11 +1892,11 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>19328</v>
+        <v>14068</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0.17872014957083368</v>
+        <v>0.40222656581966515</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1907,11 +1907,11 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>20160</v>
+        <v>18447</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0.15968488183068652</v>
+        <v>0.23108665749656121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1922,11 +1922,11 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>18758</v>
+        <v>19639</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.23788241985942388</v>
+        <v>0.20208832730670784</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1937,11 +1937,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>19156</v>
+        <v>16802</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.25145558985580868</v>
+        <v>0.34344105349536946</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1952,11 +1952,11 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>17286</v>
+        <v>18161</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.26159760785988895</v>
+        <v>0.22422041862451944</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1967,11 +1967,11 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>19233</v>
+        <v>17972</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0.20577304261645193</v>
+        <v>0.2578460521968946</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1982,11 +1982,11 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>17564</v>
+        <v>18294</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0.28048830445291056</v>
+        <v>0.25058375322600468</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1997,11 +1997,11 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>32381</v>
+        <v>40627</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>0.24267371424562059</v>
+        <v>4.9816404331454497E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2012,11 +2012,11 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>34748</v>
+        <v>37144</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.18326477846985545</v>
+        <v>0.12694793747796451</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2027,11 +2027,11 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>32058</v>
+        <v>37005</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>0.23613229126953869</v>
+        <v>0.11825676706061761</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2042,11 +2042,11 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>38000</v>
+        <v>39205</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0.15724107340873808</v>
+        <v>0.13051674428919938</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2057,11 +2057,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>34363</v>
+        <v>38227</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>0.18605807949215974</v>
+        <v>9.4533137524278749E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2072,11 +2072,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>32627</v>
+        <v>34800</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0.23994222750250424</v>
+        <v>0.18932140610804388</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2087,11 +2087,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>34391</v>
+        <v>37442</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>0.18134209336094648</v>
+        <v>0.10871479920969317</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2102,11 +2102,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>38625</v>
+        <v>36478</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0.14204797867614394</v>
+        <v>0.18973789426921367</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2117,11 +2117,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>36846</v>
+        <v>37433</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>0.15181510554545244</v>
+        <v>0.13830252526415138</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2132,11 +2132,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>38411</v>
+        <v>40524</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>0.13787763163801231</v>
+        <v>9.0452035731920816E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2147,11 +2147,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>52739</v>
+        <v>55653</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>0.1184012570626191</v>
+        <v>6.9690080572364685E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2162,11 +2162,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>57768</v>
+        <v>58567</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>6.9473752033633485E-2</v>
+        <v>5.6603469660604692E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2177,11 +2177,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>53179</v>
+        <v>54552</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>0.11074880438781312</v>
+        <v>8.7789706029898662E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,11 +2192,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>53988</v>
+        <v>57514</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>0.10732651002827427</v>
+        <v>4.9025281502670347E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2207,11 +2207,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>55235</v>
+        <v>56759</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>9.5857000212797305E-2</v>
+        <v>7.091060876397505E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2222,11 +2222,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>55911</v>
+        <v>56596</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>5.1696941942705951E-2</v>
+        <v>4.0078698756763176E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2237,11 +2237,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>57381</v>
+        <v>57474</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>6.7551756638174781E-2</v>
+        <v>6.604049530371478E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,11 +2252,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>53632</v>
+        <v>59123</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>0.1282184655396619</v>
+        <v>3.8962938881664501E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2267,11 +2267,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>52615</v>
+        <v>56982</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>0.11501522210821993</v>
+        <v>4.1562242443610918E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2282,11 +2282,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>56737</v>
+        <v>57181</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>5.3831401650963062E-2</v>
+        <v>4.6427082464771119E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B09923A-A142-40C6-91AC-5B8FF46341AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15D8172-B960-4974-9DF2-DA69C48EE865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="2840" windowWidth="14070" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="best-feasible-slns" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="276">
   <si>
     <t>Problem</t>
   </si>
@@ -857,6 +857,10 @@
   </si>
   <si>
     <t>gap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1818,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D546"/>
+  <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1831,15 +1835,18 @@
     <col min="4" max="4" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>273</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1847,14 +1854,18 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>16923</v>
+        <v>18986</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>0.30589393380091057</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.22127886468971741</v>
+      </c>
+      <c r="E2" s="2">
+        <f>AVERAGE(D2:D31)</f>
+        <v>0.15511876631363672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1862,14 +1873,14 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>18203</v>
+        <v>17363</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>0.25010299085441212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.28470791793688721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1877,14 +1888,14 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>19322</v>
+        <v>19142</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.17956774659250138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.18721073415141606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1892,14 +1903,14 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>14068</v>
+        <v>19684</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0.40222656581966515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.1635930993456276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1907,14 +1918,14 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>18447</v>
+        <v>19162</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0.23108665749656121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.20128381476386978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1922,14 +1933,14 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>19639</v>
+        <v>15858</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.20208832730670784</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.35570633405111118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1937,14 +1948,14 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>16802</v>
+        <v>18506</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.34344105349536946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.27685514438669845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1952,14 +1963,14 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>18161</v>
+        <v>22037</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.22422041862451944</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.8650149508756945E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1967,14 +1978,14 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>17972</v>
+        <v>18775</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0.2578460521968946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.22468615791212421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1982,14 +1993,14 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>18294</v>
+        <v>17838</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0.25058375322600468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.26926385645815409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1997,14 +2008,14 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>40627</v>
+        <v>38917</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>4.9816404331454497E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9809855696143318E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2012,14 +2023,14 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>37144</v>
+        <v>36120</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.12694793747796451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.1510165706898578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2027,14 +2038,14 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>37005</v>
+        <v>34706</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>0.11825676706061761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.17303659931376286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2042,14 +2053,14 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>39205</v>
+        <v>39507</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0.13051674428919938</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.12381902860944777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2057,11 +2068,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>38227</v>
+        <v>36618</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>9.4533137524278749E-2</v>
+        <v>0.1326448434317116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2072,11 +2083,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>34800</v>
+        <v>32810</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0.18932140610804388</v>
+        <v>0.23567917627600346</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2087,11 +2098,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>37442</v>
+        <v>34035</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>0.10871479920969317</v>
+        <v>0.18981646789973577</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2102,11 +2113,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>36478</v>
+        <v>38646</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0.18973789426921367</v>
+        <v>0.14158151932474455</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2117,11 +2128,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>37433</v>
+        <v>38610</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>0.13830252526415138</v>
+        <v>0.11120830551782877</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2132,11 +2143,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>40524</v>
+        <v>38875</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>9.0452035731920816E-2</v>
+        <v>0.12746330295820801</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2147,11 +2158,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>55653</v>
+        <v>54084</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>6.9690080572364685E-2</v>
+        <v>9.5917889739560697E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2162,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>58567</v>
+        <v>54846</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>5.6603469660604692E-2</v>
+        <v>0.11654129282711297</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2177,11 +2188,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>54552</v>
+        <v>55345</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>8.7789706029898662E-2</v>
+        <v>7.4529279957192066E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,11 +2203,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>57514</v>
+        <v>57873</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>4.9025281502670347E-2</v>
+        <v>4.3089336794589858E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2207,11 +2218,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>56759</v>
+        <v>51434</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>7.091060876397505E-2</v>
+        <v>0.15807565762550949</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2222,11 +2233,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>56596</v>
+        <v>51987</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>4.0078698756763176E-2</v>
+        <v>0.11825166641225258</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2237,11 +2248,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>57474</v>
+        <v>57489</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>6.604049530371478E-2</v>
+        <v>6.5796743475576069E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,11 +2263,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>59123</v>
+        <v>53760</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>3.8962938881664501E-2</v>
+        <v>0.12613784135240572</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2267,11 +2278,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>56982</v>
+        <v>57022</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>4.1562242443610918E-2</v>
+        <v>4.0889442080298724E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2282,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>57181</v>
+        <v>54267</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>4.6427082464771119E-2</v>
+        <v>9.5022096222796629E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -7343,5 +7354,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15D8172-B960-4974-9DF2-DA69C48EE865}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3E76D5-48D6-4F4A-A252-AEC220D3E8E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="2840" windowWidth="14070" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="best-feasible-slns" sheetId="1" r:id="rId1"/>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1854,15 +1854,15 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>18986</v>
+        <v>22210</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>0.22127886468971741</v>
+        <v>8.9044747959476644E-2</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>0.15511876631363672</v>
+        <v>6.4389041390994856E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,11 +1873,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>17363</v>
+        <v>21687</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>0.28470791793688721</v>
+        <v>0.10657493614567026</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,11 +1888,11 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>19142</v>
+        <v>20914</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.18721073415141606</v>
+        <v>0.11196976773810029</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1903,11 +1903,11 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>19684</v>
+        <v>22693</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0.1635930993456276</v>
+        <v>3.5735531571343591E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,11 +1918,11 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>19162</v>
+        <v>22123</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0.20128381476386978</v>
+        <v>7.7862531782751862E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,11 +1933,11 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>15858</v>
+        <v>24136</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.35570633405111118</v>
+        <v>1.9380002437736157E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,11 +1948,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>18506</v>
+        <v>23416</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.27685514438669845</v>
+        <v>8.4990817084131143E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1963,11 +1963,11 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>22037</v>
+        <v>21579</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>5.8650149508756945E-2</v>
+        <v>7.8214438274241779E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,11 +1978,11 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>18775</v>
+        <v>22786</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0.22468615791212421</v>
+        <v>5.9051866534522629E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,11 +1993,11 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>17838</v>
+        <v>21094</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0.26926385645815409</v>
+        <v>0.13588136495842038</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,11 +2008,11 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>38917</v>
+        <v>41131</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>8.9809855696143318E-2</v>
+        <v>3.8028860771335687E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,11 +2023,11 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>36120</v>
+        <v>39239</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.1510165706898578</v>
+        <v>7.7705958396991417E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,11 +2038,11 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>34706</v>
+        <v>38724</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>0.17303659931376286</v>
+        <v>7.7296988181471599E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,11 +2053,11 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>39507</v>
+        <v>39982</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0.12381902860944777</v>
+        <v>0.113284542027057</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,11 +2068,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>36618</v>
+        <v>38430</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>0.1326448434317116</v>
+        <v>8.9724761949879203E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,11 +2083,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>32810</v>
+        <v>37279</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0.23567917627600346</v>
+        <v>0.13157220397418873</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,11 +2098,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>34035</v>
+        <v>38097</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>0.18981646789973577</v>
+        <v>9.3122902235235311E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,11 +2113,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>38646</v>
+        <v>41040</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0.14158151932474455</v>
+        <v>8.8405153265215461E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,11 +2128,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>38610</v>
+        <v>39635</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>0.11120830551782877</v>
+        <v>8.7613084413342229E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,11 +2143,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>38875</v>
+        <v>40092</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>0.12746330295820801</v>
+        <v>0.10014813484760067</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,11 +2158,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>54084</v>
+        <v>58098</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>9.5917889739560697E-2</v>
+        <v>2.8818829193273377E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>54846</v>
+        <v>60780</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>0.11654129282711297</v>
+        <v>2.0956492324543743E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,11 +2188,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>55345</v>
+        <v>57424</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>7.4529279957192066E-2</v>
+        <v>3.9764556369352194E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,11 +2203,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>57873</v>
+        <v>59345</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>4.3089336794589858E-2</v>
+        <v>1.8750310024967343E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,11 +2218,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>51434</v>
+        <v>57973</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>0.15807565762550949</v>
+        <v>5.1038614525871238E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,11 +2233,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>51987</v>
+        <v>57674</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>0.11825166641225258</v>
+        <v>2.1794806560491188E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,11 +2248,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>57489</v>
+        <v>60675</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>6.5796743475576069E-2</v>
+        <v>1.4023855178913842E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,11 +2263,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>53760</v>
+        <v>60720</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>0.12613784135240572</v>
+        <v>1.3003901170351105E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,11 +2278,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>57022</v>
+        <v>58675</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>4.0889442080298724E-2</v>
+        <v>1.3085967066422215E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>54267</v>
+        <v>59076</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>9.5022096222796629E-2</v>
+        <v>1.4825314766947387E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2307,9 +2307,12 @@
       <c r="B32" s="1">
         <v>59312</v>
       </c>
+      <c r="C32" s="1">
+        <v>51970</v>
+      </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.12378608038845428</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2319,9 +2322,12 @@
       <c r="B33" s="1">
         <v>61472</v>
       </c>
+      <c r="C33" s="1">
+        <v>52972</v>
+      </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.13827433628318583</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2331,9 +2337,12 @@
       <c r="B34" s="1">
         <v>62130</v>
       </c>
+      <c r="C34" s="1">
+        <v>52963</v>
+      </c>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.14754546917753097</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2343,9 +2352,12 @@
       <c r="B35" s="1">
         <v>59446</v>
       </c>
+      <c r="C35" s="1">
+        <v>51547</v>
+      </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.13287689667933925</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2355,9 +2367,12 @@
       <c r="B36" s="1">
         <v>58951</v>
       </c>
+      <c r="C36" s="1">
+        <v>52129</v>
+      </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.11572322776543231</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2367,9 +2382,12 @@
       <c r="B37" s="1">
         <v>60056</v>
       </c>
+      <c r="C37" s="1">
+        <v>52746</v>
+      </c>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.12171972825362995</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2379,9 +2397,12 @@
       <c r="B38" s="1">
         <v>60414</v>
       </c>
+      <c r="C38" s="1">
+        <v>52576</v>
+      </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.12973814016618665</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2391,9 +2412,12 @@
       <c r="B39" s="1">
         <v>61472</v>
       </c>
+      <c r="C39" s="1">
+        <v>56204</v>
+      </c>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8.569755335762623E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2403,9 +2427,12 @@
       <c r="B40" s="1">
         <v>61885</v>
       </c>
+      <c r="C40" s="1">
+        <v>52466</v>
+      </c>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.15220166437747434</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2415,9 +2442,12 @@
       <c r="B41" s="1">
         <v>58959</v>
       </c>
+      <c r="C41" s="1">
+        <v>51846</v>
+      </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.12064315880527146</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2427,9 +2457,12 @@
       <c r="B42" s="1">
         <v>109109</v>
       </c>
+      <c r="C42" s="1">
+        <v>96614</v>
+      </c>
       <c r="D42" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.11451850901392185</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2439,9 +2472,12 @@
       <c r="B43" s="1">
         <v>109841</v>
       </c>
+      <c r="C43" s="1">
+        <v>95129</v>
+      </c>
       <c r="D43" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1339390573647363</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2451,9 +2487,12 @@
       <c r="B44" s="1">
         <v>108489</v>
       </c>
+      <c r="C44" s="1">
+        <v>93832</v>
+      </c>
       <c r="D44" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.13510125450506502</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2463,9 +2502,12 @@
       <c r="B45" s="1">
         <v>109383</v>
       </c>
+      <c r="C45" s="1">
+        <v>96864</v>
+      </c>
       <c r="D45" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.11445105729409506</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2475,9 +2517,12 @@
       <c r="B46" s="1">
         <v>110720</v>
       </c>
+      <c r="C46" s="1">
+        <v>98073</v>
+      </c>
       <c r="D46" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.11422507225433526</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2487,9 +2532,12 @@
       <c r="B47" s="1">
         <v>110256</v>
       </c>
+      <c r="C47" s="1">
+        <v>97273</v>
+      </c>
       <c r="D47" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.11775322884922362</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2499,9 +2547,12 @@
       <c r="B48" s="1">
         <v>109016</v>
       </c>
+      <c r="C48" s="1">
+        <v>95917</v>
+      </c>
       <c r="D48" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.12015667424965143</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2511,9 +2562,12 @@
       <c r="B49" s="1">
         <v>109037</v>
       </c>
+      <c r="C49" s="1">
+        <v>96792</v>
+      </c>
       <c r="D49" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.1123013289067014</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2523,9 +2577,12 @@
       <c r="B50" s="1">
         <v>109957</v>
       </c>
+      <c r="C50" s="1">
+        <v>97105</v>
+      </c>
       <c r="D50" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.11688205389379484</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2535,9 +2592,12 @@
       <c r="B51" s="1">
         <v>107038</v>
       </c>
+      <c r="C51" s="1">
+        <v>93349</v>
+      </c>
       <c r="D51" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.12788916085876045</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2547,9 +2607,12 @@
       <c r="B52" s="1">
         <v>149659</v>
       </c>
+      <c r="C52" s="1">
+        <v>145771</v>
+      </c>
       <c r="D52" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.5979059060931852E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2559,9 +2622,12 @@
       <c r="B53" s="1">
         <v>155940</v>
       </c>
+      <c r="C53" s="1">
+        <v>148608</v>
+      </c>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4.7018083878414774E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2571,9 +2637,12 @@
       <c r="B54" s="1">
         <v>149316</v>
       </c>
+      <c r="C54" s="1">
+        <v>144593</v>
+      </c>
       <c r="D54" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3.1630903587023494E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2583,9 +2652,12 @@
       <c r="B55" s="1">
         <v>152130</v>
       </c>
+      <c r="C55" s="1">
+        <v>147243</v>
+      </c>
       <c r="D55" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3.2123841451390259E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2595,9 +2667,12 @@
       <c r="B56" s="1">
         <v>150353</v>
       </c>
+      <c r="C56" s="1">
+        <v>143261</v>
+      </c>
       <c r="D56" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4.71689956302834E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2607,9 +2682,12 @@
       <c r="B57" s="1">
         <v>150045</v>
       </c>
+      <c r="C57" s="1">
+        <v>146668</v>
+      </c>
       <c r="D57" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.2506581358925654E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2619,9 +2697,12 @@
       <c r="B58" s="1">
         <v>148607</v>
       </c>
+      <c r="C58" s="1">
+        <v>143372</v>
+      </c>
       <c r="D58" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3.5227142732172777E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2631,9 +2712,12 @@
       <c r="B59" s="1">
         <v>149772</v>
       </c>
+      <c r="C59" s="1">
+        <v>142229</v>
+      </c>
       <c r="D59" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5.0363218759180622E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2643,9 +2727,12 @@
       <c r="B60" s="1">
         <v>155075</v>
       </c>
+      <c r="C60" s="1">
+        <v>146576</v>
+      </c>
       <c r="D60" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5.4805739158471707E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2655,9 +2742,12 @@
       <c r="B61" s="1">
         <v>154662</v>
       </c>
+      <c r="C61" s="1">
+        <v>147335</v>
+      </c>
       <c r="D61" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4.7374274223791236E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3E76D5-48D6-4F4A-A252-AEC220D3E8E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76CE233-27E4-42CB-8267-B5BB34B66813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1854,15 +1854,15 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>22210</v>
+        <v>22722</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>8.9044747959476644E-2</v>
+        <v>6.8044788975021531E-2</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>6.4389041390994856E-2</v>
+        <v>3.4776403507067184E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,11 +1873,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>21687</v>
+        <v>22420</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>0.10657493614567026</v>
+        <v>7.6378017632034279E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,11 +1888,11 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>20914</v>
+        <v>21798</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.11196976773810029</v>
+        <v>7.4434206615430348E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1903,11 +1903,11 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>22693</v>
+        <v>23354</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>3.5735531571343591E-2</v>
+        <v>7.6485085408345369E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,11 +1918,11 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>22123</v>
+        <v>22496</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>7.7862531782751862E-2</v>
+        <v>6.2315034804718436E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,11 +1933,11 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>24136</v>
+        <v>24755</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>1.9380002437736157E-2</v>
+        <v>-5.7693089017998621E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,11 +1948,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>23416</v>
+        <v>24652</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>8.4990817084131143E-2</v>
+        <v>3.6692587237700754E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1963,11 +1963,11 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>21579</v>
+        <v>22557</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>7.8214438274241779E-2</v>
+        <v>3.6437419906023068E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,11 +1978,11 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>22786</v>
+        <v>22540</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>5.9051866534522629E-2</v>
+        <v>6.921043937892303E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,11 +1993,11 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>21094</v>
+        <v>23098</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0.13588136495842038</v>
+        <v>5.3787227069763632E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,11 +2008,11 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>41131</v>
+        <v>42474</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>3.8028860771335687E-2</v>
+        <v>6.6187992609397289E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,11 +2023,11 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>39239</v>
+        <v>39563</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>7.7705958396991417E-2</v>
+        <v>7.0090492419790804E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,11 +2038,11 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>38724</v>
+        <v>39885</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>7.7296988181471599E-2</v>
+        <v>4.9633053755242088E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,11 +2053,11 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>39982</v>
+        <v>41232</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0.113284542027057</v>
+        <v>8.5562208915502327E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,11 +2068,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>38430</v>
+        <v>39794</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>8.9724761949879203E-2</v>
+        <v>5.7416267942583733E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,11 +2083,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>37279</v>
+        <v>39636</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0.13157220397418873</v>
+        <v>7.6665035991334132E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,11 +2098,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>38097</v>
+        <v>41000</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>9.3122902235235311E-2</v>
+        <v>2.4018662667523626E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,11 +2113,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>41040</v>
+        <v>41726</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>8.8405153265215461E-2</v>
+        <v>7.3167481119502442E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,11 +2128,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>39635</v>
+        <v>41940</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>8.7613084413342229E-2</v>
+        <v>3.4552611588131027E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,11 +2143,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>40092</v>
+        <v>43110</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>0.10014813484760067</v>
+        <v>3.2410109081115052E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,11 +2158,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>58098</v>
+        <v>58930</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>2.8818829193273377E-2</v>
+        <v>1.4910902343619404E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>60780</v>
+        <v>62089</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>2.0956492324543743E-2</v>
+        <v>-1.2886390360980011E-4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,11 +2188,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>57424</v>
+        <v>58918</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>3.9764556369352194E-2</v>
+        <v>1.4782114310558175E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,11 +2203,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>59345</v>
+        <v>60260</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>1.8750310024967343E-2</v>
+        <v>3.6210916185783495E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,11 +2218,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>57973</v>
+        <v>60604</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>5.1038614525871238E-2</v>
+        <v>7.9717143278060596E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,11 +2233,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>57674</v>
+        <v>58526</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>2.1794806560491188E-2</v>
+        <v>7.3440865686324394E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,11 +2248,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>60675</v>
+        <v>61853</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>1.4023855178913842E-2</v>
+        <v>-5.1187883909129322E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,11 +2263,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>60720</v>
+        <v>60675</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>1.3003901170351105E-2</v>
+        <v>1.3735370611183354E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,11 +2278,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>58675</v>
+        <v>59597</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>1.3085967066422215E-2</v>
+        <v>-2.4220813079239064E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>59076</v>
+        <v>60008</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>1.4825314766947387E-2</v>
+        <v>-7.1708496623030106E-4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2307,12 +2307,9 @@
       <c r="B32" s="1">
         <v>59312</v>
       </c>
-      <c r="C32" s="1">
-        <v>51970</v>
-      </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>0.12378608038845428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2322,12 +2319,9 @@
       <c r="B33" s="1">
         <v>61472</v>
       </c>
-      <c r="C33" s="1">
-        <v>52972</v>
-      </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>0.13827433628318583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2337,12 +2331,9 @@
       <c r="B34" s="1">
         <v>62130</v>
       </c>
-      <c r="C34" s="1">
-        <v>52963</v>
-      </c>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
-        <v>0.14754546917753097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2352,12 +2343,9 @@
       <c r="B35" s="1">
         <v>59446</v>
       </c>
-      <c r="C35" s="1">
-        <v>51547</v>
-      </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>0.13287689667933925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2367,12 +2355,9 @@
       <c r="B36" s="1">
         <v>58951</v>
       </c>
-      <c r="C36" s="1">
-        <v>52129</v>
-      </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>0.11572322776543231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2382,12 +2367,9 @@
       <c r="B37" s="1">
         <v>60056</v>
       </c>
-      <c r="C37" s="1">
-        <v>52746</v>
-      </c>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>0.12171972825362995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2397,12 +2379,9 @@
       <c r="B38" s="1">
         <v>60414</v>
       </c>
-      <c r="C38" s="1">
-        <v>52576</v>
-      </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>0.12973814016618665</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2412,12 +2391,9 @@
       <c r="B39" s="1">
         <v>61472</v>
       </c>
-      <c r="C39" s="1">
-        <v>56204</v>
-      </c>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
-        <v>8.569755335762623E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2427,12 +2403,9 @@
       <c r="B40" s="1">
         <v>61885</v>
       </c>
-      <c r="C40" s="1">
-        <v>52466</v>
-      </c>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>0.15220166437747434</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -2442,12 +2415,9 @@
       <c r="B41" s="1">
         <v>58959</v>
       </c>
-      <c r="C41" s="1">
-        <v>51846</v>
-      </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>0.12064315880527146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2457,12 +2427,9 @@
       <c r="B42" s="1">
         <v>109109</v>
       </c>
-      <c r="C42" s="1">
-        <v>96614</v>
-      </c>
       <c r="D42" s="2">
         <f t="shared" si="0"/>
-        <v>0.11451850901392185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2472,12 +2439,9 @@
       <c r="B43" s="1">
         <v>109841</v>
       </c>
-      <c r="C43" s="1">
-        <v>95129</v>
-      </c>
       <c r="D43" s="2">
         <f t="shared" si="0"/>
-        <v>0.1339390573647363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2487,12 +2451,9 @@
       <c r="B44" s="1">
         <v>108489</v>
       </c>
-      <c r="C44" s="1">
-        <v>93832</v>
-      </c>
       <c r="D44" s="2">
         <f t="shared" si="0"/>
-        <v>0.13510125450506502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2502,12 +2463,9 @@
       <c r="B45" s="1">
         <v>109383</v>
       </c>
-      <c r="C45" s="1">
-        <v>96864</v>
-      </c>
       <c r="D45" s="2">
         <f t="shared" si="0"/>
-        <v>0.11445105729409506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2517,12 +2475,9 @@
       <c r="B46" s="1">
         <v>110720</v>
       </c>
-      <c r="C46" s="1">
-        <v>98073</v>
-      </c>
       <c r="D46" s="2">
         <f t="shared" si="0"/>
-        <v>0.11422507225433526</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2532,12 +2487,9 @@
       <c r="B47" s="1">
         <v>110256</v>
       </c>
-      <c r="C47" s="1">
-        <v>97273</v>
-      </c>
       <c r="D47" s="2">
         <f t="shared" si="0"/>
-        <v>0.11775322884922362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2547,12 +2499,9 @@
       <c r="B48" s="1">
         <v>109016</v>
       </c>
-      <c r="C48" s="1">
-        <v>95917</v>
-      </c>
       <c r="D48" s="2">
         <f t="shared" si="0"/>
-        <v>0.12015667424965143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2562,12 +2511,9 @@
       <c r="B49" s="1">
         <v>109037</v>
       </c>
-      <c r="C49" s="1">
-        <v>96792</v>
-      </c>
       <c r="D49" s="2">
         <f t="shared" si="0"/>
-        <v>0.1123013289067014</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2577,12 +2523,9 @@
       <c r="B50" s="1">
         <v>109957</v>
       </c>
-      <c r="C50" s="1">
-        <v>97105</v>
-      </c>
       <c r="D50" s="2">
         <f t="shared" si="0"/>
-        <v>0.11688205389379484</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2592,12 +2535,9 @@
       <c r="B51" s="1">
         <v>107038</v>
       </c>
-      <c r="C51" s="1">
-        <v>93349</v>
-      </c>
       <c r="D51" s="2">
         <f t="shared" si="0"/>
-        <v>0.12788916085876045</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2607,12 +2547,9 @@
       <c r="B52" s="1">
         <v>149659</v>
       </c>
-      <c r="C52" s="1">
-        <v>145771</v>
-      </c>
       <c r="D52" s="2">
         <f t="shared" si="0"/>
-        <v>2.5979059060931852E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2622,12 +2559,9 @@
       <c r="B53" s="1">
         <v>155940</v>
       </c>
-      <c r="C53" s="1">
-        <v>148608</v>
-      </c>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
-        <v>4.7018083878414774E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2637,12 +2571,9 @@
       <c r="B54" s="1">
         <v>149316</v>
       </c>
-      <c r="C54" s="1">
-        <v>144593</v>
-      </c>
       <c r="D54" s="2">
         <f t="shared" si="0"/>
-        <v>3.1630903587023494E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2652,12 +2583,9 @@
       <c r="B55" s="1">
         <v>152130</v>
       </c>
-      <c r="C55" s="1">
-        <v>147243</v>
-      </c>
       <c r="D55" s="2">
         <f t="shared" si="0"/>
-        <v>3.2123841451390259E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2667,12 +2595,9 @@
       <c r="B56" s="1">
         <v>150353</v>
       </c>
-      <c r="C56" s="1">
-        <v>143261</v>
-      </c>
       <c r="D56" s="2">
         <f t="shared" si="0"/>
-        <v>4.71689956302834E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2682,12 +2607,9 @@
       <c r="B57" s="1">
         <v>150045</v>
       </c>
-      <c r="C57" s="1">
-        <v>146668</v>
-      </c>
       <c r="D57" s="2">
         <f t="shared" si="0"/>
-        <v>2.2506581358925654E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2697,12 +2619,9 @@
       <c r="B58" s="1">
         <v>148607</v>
       </c>
-      <c r="C58" s="1">
-        <v>143372</v>
-      </c>
       <c r="D58" s="2">
         <f t="shared" si="0"/>
-        <v>3.5227142732172777E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2712,12 +2631,9 @@
       <c r="B59" s="1">
         <v>149772</v>
       </c>
-      <c r="C59" s="1">
-        <v>142229</v>
-      </c>
       <c r="D59" s="2">
         <f t="shared" si="0"/>
-        <v>5.0363218759180622E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2727,12 +2643,9 @@
       <c r="B60" s="1">
         <v>155075</v>
       </c>
-      <c r="C60" s="1">
-        <v>146576</v>
-      </c>
       <c r="D60" s="2">
         <f t="shared" si="0"/>
-        <v>5.4805739158471707E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2742,12 +2655,9 @@
       <c r="B61" s="1">
         <v>154662</v>
       </c>
-      <c r="C61" s="1">
-        <v>147335</v>
-      </c>
       <c r="D61" s="2">
         <f t="shared" si="0"/>
-        <v>4.7374274223791236E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76CE233-27E4-42CB-8267-B5BB34B66813}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61312016-54F9-4B5D-B7F8-A76686AD51AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1854,15 +1854,15 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>22722</v>
+        <v>23237</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>6.8044788975021531E-2</v>
+        <v>4.692178335589188E-2</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>3.4776403507067184E-2</v>
+        <v>3.0558959756265932E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,11 +1873,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>22420</v>
+        <v>21852</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>7.6378017632034279E-2</v>
+        <v>9.9777539754469805E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,11 +1888,11 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>21798</v>
+        <v>22034</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>7.4434206615430348E-2</v>
+        <v>6.4413400704853296E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1903,11 +1903,11 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>23354</v>
+        <v>23393</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>7.6485085408345369E-3</v>
+        <v>5.9913316903203876E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,11 +1918,11 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>22496</v>
+        <v>23137</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>6.2315034804718436E-2</v>
+        <v>3.5596682089116753E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,11 +1948,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>24652</v>
+        <v>24969</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>3.6692587237700754E-2</v>
+        <v>2.4305419874174516E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1963,11 +1963,11 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>22557</v>
+        <v>23043</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>3.6437419906023068E-2</v>
+        <v>1.5677061085006407E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,11 +1978,11 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>22540</v>
+        <v>22947</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>6.921043937892303E-2</v>
+        <v>5.2403369672943512E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,11 +1993,11 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>23098</v>
+        <v>22728</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>5.3787227069763632E-2</v>
+        <v>6.8944328376551553E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,11 +2008,11 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>42474</v>
+        <v>41982</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>6.6187992609397289E-3</v>
+        <v>1.8125687022008091E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,11 +2023,11 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>39563</v>
+        <v>39655</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>7.0090492419790804E-2</v>
+        <v>6.7928076154659775E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,11 +2038,11 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>39885</v>
+        <v>39643</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>4.9633053755242088E-2</v>
+        <v>5.5399351887152115E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,11 +2053,11 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>41232</v>
+        <v>42029</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>8.5562208915502327E-2</v>
+        <v>6.7886449323575071E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,11 +2068,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>39794</v>
+        <v>40035</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>5.7416267942583733E-2</v>
+        <v>5.1707802359183284E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,11 +2083,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>39636</v>
+        <v>39455</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>7.6665035991334132E-2</v>
+        <v>8.0881496494048036E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,11 +2098,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>41000</v>
+        <v>40764</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>2.4018662667523626E-2</v>
+        <v>2.9636506462900808E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,11 +2113,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>41726</v>
+        <v>42271</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>7.3167481119502442E-2</v>
+        <v>6.1061750333185248E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,11 +2128,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>41940</v>
+        <v>41819</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>3.4552611588131027E-2</v>
+        <v>3.7337998664855779E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,11 +2143,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>43110</v>
+        <v>43888</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>3.2410109081115052E-2</v>
+        <v>1.4948152803339767E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,11 +2158,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>58930</v>
+        <v>59464</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>1.4910902343619404E-2</v>
+        <v>5.9844204473270702E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>62089</v>
+        <v>62127</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>-1.2886390360980011E-4</v>
+        <v>-7.409674457563506E-4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,11 +2188,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>58918</v>
+        <v>59470</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>1.4782114310558175E-2</v>
+        <v>5.551653790843116E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,11 +2203,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>60260</v>
+        <v>60226</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>3.6210916185783495E-3</v>
+        <v>4.1832702260288694E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,11 +2218,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>60604</v>
+        <v>60007</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>7.9717143278060596E-3</v>
+        <v>1.7744021214254144E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,11 +2233,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>58526</v>
+        <v>58747</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>7.3440865686324394E-3</v>
+        <v>3.5957190590071068E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,11 +2248,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>61853</v>
+        <v>61728</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>-5.1187883909129322E-3</v>
+        <v>-3.0875231564236731E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,11 +2263,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>60675</v>
+        <v>61727</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>1.3735370611183354E-2</v>
+        <v>-3.3647594278283484E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,11 +2278,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>59597</v>
+        <v>59348</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>-2.4220813079239064E-3</v>
+        <v>1.7661009536945149E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>60008</v>
+        <v>60447</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>-7.1708496623030106E-4</v>
+        <v>-8.0380221796047691E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61312016-54F9-4B5D-B7F8-A76686AD51AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDCC527-C035-4A2A-A70F-ED8182797227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="277">
   <si>
     <t>Problem</t>
   </si>
@@ -862,6 +862,9 @@
   <si>
     <t>avg</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process finished with exit code 0</t>
   </si>
 </sst>
 </file>
@@ -1824,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="C242" sqref="C242:C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1854,15 +1857,15 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>23237</v>
+        <v>24165</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>4.692178335589188E-2</v>
+        <v>8.8593576965669985E-3</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>3.0558959756265932E-2</v>
+        <v>-3.0421530393434051E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,11 +1876,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>21852</v>
+        <v>24351</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>9.9777539754469805E-2</v>
+        <v>-3.1721183158935485E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,11 +1891,11 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>22034</v>
+        <v>24284</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>6.4413400704853296E-2</v>
+        <v>-3.1123943781580399E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1903,11 +1906,11 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>23393</v>
+        <v>25361</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>5.9913316903203876E-3</v>
+        <v>-7.7632361689470547E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,11 +1921,11 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>23137</v>
+        <v>25331</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>3.5596682089116753E-2</v>
+        <v>-5.5854278687841277E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,11 +1936,11 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>24755</v>
+        <v>26710</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>-5.7693089017998621E-3</v>
+        <v>-8.5198878641368381E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,11 +1951,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>24969</v>
+        <v>27541</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>2.4305419874174516E-2</v>
+        <v>-7.6198663592669302E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1963,11 +1966,11 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>23043</v>
+        <v>24045</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>1.5677061085006407E-2</v>
+        <v>-2.7125160187953867E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,11 +1981,11 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>22947</v>
+        <v>25264</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>5.2403369672943512E-2</v>
+        <v>-4.327717211760819E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,11 +1996,11 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>22728</v>
+        <v>24238</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>6.8944328376551553E-2</v>
+        <v>7.086968989390029E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,11 +2011,11 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>41982</v>
+        <v>44976</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>1.8125687022008091E-2</v>
+        <v>-5.1897934841078651E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,11 +2026,11 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>39655</v>
+        <v>42618</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>6.7928076154659775E-2</v>
+        <v>-1.7158302973322365E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,11 +2041,11 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>39643</v>
+        <v>43844</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>5.5399351887152115E-2</v>
+        <v>-4.4700724361418226E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,11 +2056,11 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>42029</v>
+        <v>44669</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>6.7886449323575071E-2</v>
+        <v>9.3368817919716116E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,11 +2071,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>40035</v>
+        <v>43383</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>5.1707802359183284E-2</v>
+        <v>-2.7594864749632859E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,11 +2086,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>39455</v>
+        <v>42151</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>8.0881496494048036E-2</v>
+        <v>1.8077200829314882E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,11 +2101,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>40764</v>
+        <v>42089</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>2.9636506462900808E-2</v>
+        <v>-1.9043538289414174E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,11 +2116,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>42271</v>
+        <v>44570</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>6.1061750333185248E-2</v>
+        <v>9.995557529986673E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,11 +2131,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>41819</v>
+        <v>43927</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>3.7337998664855779E-2</v>
+        <v>-1.1187587762712645E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,11 +2146,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>43888</v>
+        <v>45705</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>1.4948152803339767E-2</v>
+        <v>-2.583381963460071E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,11 +2161,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>59464</v>
+        <v>62036</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>5.9844204473270702E-3</v>
+        <v>-3.7009795727324393E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,11 +2176,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>62127</v>
+        <v>65477</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>-7.409674457563506E-4</v>
+        <v>-5.4702727082360139E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,11 +2191,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>59470</v>
+        <v>61016</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>5.551653790843116E-3</v>
+        <v>-2.0300324403866091E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,11 +2206,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>60226</v>
+        <v>63149</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>4.1832702260288694E-3</v>
+        <v>-4.4147555349790833E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,11 +2221,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>60007</v>
+        <v>63075</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>1.7744021214254144E-2</v>
+        <v>-3.2476142148597995E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,11 +2236,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>58747</v>
+        <v>61201</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>3.5957190590071068E-3</v>
+        <v>-3.8026425142895913E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,11 +2251,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>61728</v>
+        <v>64734</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>-3.0875231564236731E-3</v>
+        <v>-5.1935389515421364E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,11 +2266,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>61727</v>
+        <v>63575</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>-3.3647594278283484E-3</v>
+        <v>-3.3403771131339403E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,11 +2281,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>59348</v>
+        <v>61983</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>1.7661009536945149E-3</v>
+        <v>-4.2554622979496408E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,11 +2296,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>60447</v>
+        <v>62785</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>-8.0380221796047691E-3</v>
+        <v>-4.702743266905695E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2319,9 +2322,12 @@
       <c r="B33" s="1">
         <v>61472</v>
       </c>
-      <c r="D33" s="2">
+      <c r="C33" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="2" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -4827,9 +4833,12 @@
       <c r="B242" s="1">
         <v>115868</v>
       </c>
+      <c r="C242" s="1">
+        <v>104870</v>
+      </c>
       <c r="D242" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>9.4918355369903687E-2</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4839,9 +4848,12 @@
       <c r="B243" s="1">
         <v>114667</v>
       </c>
+      <c r="C243" s="1">
+        <v>103733</v>
+      </c>
       <c r="D243" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>9.5354373969843115E-2</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4851,9 +4863,12 @@
       <c r="B244" s="1">
         <v>116661</v>
       </c>
+      <c r="C244" s="1">
+        <v>106908</v>
+      </c>
       <c r="D244" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.3601203487026515E-2</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4863,9 +4878,12 @@
       <c r="B245" s="1">
         <v>115237</v>
       </c>
+      <c r="C245" s="1">
+        <v>102987</v>
+      </c>
       <c r="D245" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.10630266320712965</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4875,9 +4893,12 @@
       <c r="B246" s="1">
         <v>116353</v>
       </c>
+      <c r="C246" s="1">
+        <v>106647</v>
+      </c>
       <c r="D246" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.3418562477976507E-2</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4887,9 +4908,12 @@
       <c r="B247" s="1">
         <v>115604</v>
       </c>
+      <c r="C247" s="1">
+        <v>102998</v>
+      </c>
       <c r="D247" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.10904466973461126</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4899,9 +4923,12 @@
       <c r="B248" s="1">
         <v>113952</v>
       </c>
+      <c r="C248" s="1">
+        <v>103276</v>
+      </c>
       <c r="D248" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>9.3688570626228582E-2</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4911,9 +4938,12 @@
       <c r="B249" s="1">
         <v>114199</v>
       </c>
+      <c r="C249" s="1">
+        <v>103599</v>
+      </c>
       <c r="D249" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>9.2820427499365143E-2</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4923,9 +4953,12 @@
       <c r="B250" s="1">
         <v>115247</v>
       </c>
+      <c r="C250" s="1">
+        <v>104145</v>
+      </c>
       <c r="D250" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>9.6332225567693733E-2</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4935,9 +4968,12 @@
       <c r="B251" s="1">
         <v>116947</v>
       </c>
+      <c r="C251" s="1">
+        <v>108080</v>
+      </c>
       <c r="D251" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7.5820670902203569E-2</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4947,9 +4983,12 @@
       <c r="B252" s="1">
         <v>217995</v>
       </c>
+      <c r="C252" s="1">
+        <v>192044</v>
+      </c>
       <c r="D252" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.11904401477098099</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4959,9 +4998,12 @@
       <c r="B253" s="1">
         <v>214534</v>
       </c>
+      <c r="C253" s="1">
+        <v>191024</v>
+      </c>
       <c r="D253" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.10958635927172383</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4971,9 +5013,12 @@
       <c r="B254" s="1">
         <v>215854</v>
       </c>
+      <c r="C254" s="1">
+        <v>190707</v>
+      </c>
       <c r="D254" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.1165000416948493</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4983,9 +5028,12 @@
       <c r="B255" s="1">
         <v>217836</v>
       </c>
+      <c r="C255" s="1">
+        <v>195671</v>
+      </c>
       <c r="D255" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.10175085844396702</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4995,9 +5043,12 @@
       <c r="B256" s="1">
         <v>215566</v>
       </c>
+      <c r="C256" s="1">
+        <v>189517</v>
+      </c>
       <c r="D256" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.12084002115361421</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -5007,9 +5058,12 @@
       <c r="B257" s="1">
         <v>215762</v>
       </c>
+      <c r="C257" s="1">
+        <v>191609</v>
+      </c>
       <c r="D257" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.11194278881360017</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5019,9 +5073,12 @@
       <c r="B258" s="1">
         <v>215772</v>
       </c>
+      <c r="C258" s="1">
+        <v>193133</v>
+      </c>
       <c r="D258" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.10492093506108299</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5031,9 +5088,12 @@
       <c r="B259" s="1">
         <v>216336</v>
       </c>
+      <c r="C259" s="1">
+        <v>194033</v>
+      </c>
       <c r="D259" s="2">
         <f t="shared" ref="D259:D271" si="4">(B259-C259)/B259</f>
-        <v>1</v>
+        <v>0.10309426077952814</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5043,9 +5103,12 @@
       <c r="B260" s="1">
         <v>217290</v>
       </c>
+      <c r="C260" s="1">
+        <v>194908</v>
+      </c>
       <c r="D260" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.10300520042339731</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5055,9 +5118,12 @@
       <c r="B261" s="1">
         <v>214624</v>
       </c>
+      <c r="C261" s="1">
+        <v>190405</v>
+      </c>
       <c r="D261" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.11284385716415685</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5067,9 +5133,12 @@
       <c r="B262" s="1">
         <v>301627</v>
       </c>
+      <c r="C262" s="1">
+        <v>293027</v>
+      </c>
       <c r="D262" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2.8512036389315279E-2</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5079,9 +5148,12 @@
       <c r="B263" s="1">
         <v>299985</v>
       </c>
+      <c r="C263" s="1">
+        <v>291678</v>
+      </c>
       <c r="D263" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2.7691384569228462E-2</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5091,9 +5163,12 @@
       <c r="B264" s="1">
         <v>304995</v>
       </c>
+      <c r="C264" s="1">
+        <v>295336</v>
+      </c>
       <c r="D264" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3.1669371629043097E-2</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5103,9 +5178,12 @@
       <c r="B265" s="1">
         <v>301935</v>
       </c>
+      <c r="C265" s="1">
+        <v>292774</v>
+      </c>
       <c r="D265" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3.0340967426764037E-2</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5115,9 +5193,12 @@
       <c r="B266" s="1">
         <v>304404</v>
       </c>
+      <c r="C266" s="1">
+        <v>295416</v>
+      </c>
       <c r="D266" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2.9526550242440965E-2</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5127,9 +5208,12 @@
       <c r="B267" s="1">
         <v>296894</v>
       </c>
+      <c r="C267" s="1">
+        <v>287875</v>
+      </c>
       <c r="D267" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3.0377845291585548E-2</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5139,9 +5223,12 @@
       <c r="B268" s="1">
         <v>303233</v>
       </c>
+      <c r="C268" s="1">
+        <v>293504</v>
+      </c>
       <c r="D268" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3.2084238852631473E-2</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5151,9 +5238,12 @@
       <c r="B269" s="1">
         <v>306944</v>
       </c>
+      <c r="C269" s="1">
+        <v>296365</v>
+      </c>
       <c r="D269" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3.4465570266889074E-2</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5163,9 +5253,12 @@
       <c r="B270" s="1">
         <v>303057</v>
       </c>
+      <c r="C270" s="1">
+        <v>295285</v>
+      </c>
       <c r="D270" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2.5645340645489133E-2</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5175,9 +5268,12 @@
       <c r="B271" s="1">
         <v>300460</v>
       </c>
+      <c r="C271" s="1">
+        <v>289659</v>
+      </c>
       <c r="D271" s="2">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3.594821274046462E-2</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FC78EA-1B93-4874-9B3A-11D2F61F6BB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC72125-E5CA-4010-BD3A-A5006DA1FEBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="276">
   <si>
     <t>Problem</t>
   </si>
@@ -857,6 +857,10 @@
   </si>
   <si>
     <t>gap</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1818,7 +1822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D546"/>
+  <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C31"/>
@@ -1831,15 +1835,18 @@
     <col min="4" max="4" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>273</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1847,14 +1854,18 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>18032</v>
+        <v>22408</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>0.26040769451622164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.0923670070956896E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>AVERAGE(D2:D31)</f>
+        <v>1.5978611400744545E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1862,14 +1873,14 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>17688</v>
+        <v>22799</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>0.27131910686331051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6.0764604103155637E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1877,14 +1888,14 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>19979</v>
+        <v>22146</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>0.15167084200246275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.9657764001528599E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1892,14 +1903,14 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>19328</v>
+        <v>24225</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>0.17872014957083368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-2.9361774453981474E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1907,14 +1918,14 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>20160</v>
+        <v>22788</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>0.15968488183068652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5.0143803926472427E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1922,14 +1933,14 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>18758</v>
+        <v>25419</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>0.23788241985942388</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3.274692235810344E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1937,14 +1948,14 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>19156</v>
+        <v>25399</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>0.25145558985580868</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.5026376460474381E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1952,14 +1963,14 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>17286</v>
+        <v>23400</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.26159760785988895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.2716787697565144E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1967,14 +1978,14 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>19233</v>
+        <v>24000</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>0.20577304261645193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8.9197224975222991E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1982,14 +1993,14 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>17564</v>
+        <v>23252</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>0.28048830445291056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.7478595715046493E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1997,14 +2008,14 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>32381</v>
+        <v>44255</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>0.24267371424562059</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>-3.5035198914797575E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2012,14 +2023,14 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>34748</v>
+        <v>42484</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>0.18326477846985545</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4337760018803621E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2027,14 +2038,14 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>32058</v>
+        <v>41209</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>0.23613229126953869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.8085207777354173E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -2042,14 +2053,14 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>38000</v>
+        <v>41720</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>0.15724107340873808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7.4739410068751386E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2057,11 +2068,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>34363</v>
+        <v>40307</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>0.18605807949215974</v>
+        <v>4.5265052821071579E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2072,11 +2083,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>32627</v>
+        <v>40425</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>0.23994222750250424</v>
+        <v>5.8284995457404433E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2087,11 +2098,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>34391</v>
+        <v>40976</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>0.18134209336094648</v>
+        <v>2.4589968816206051E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2102,11 +2113,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>38625</v>
+        <v>43089</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>0.14204797867614394</v>
+        <v>4.2892047978676143E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2117,11 +2128,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>36846</v>
+        <v>42157</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>0.15181510554545244</v>
+        <v>2.9557330632351924E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2132,11 +2143,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>38411</v>
+        <v>44326</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>0.13787763163801231</v>
+        <v>5.117385644386587E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2147,11 +2158,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>52739</v>
+        <v>59249</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>0.1184012570626191</v>
+        <v>9.5784159673698646E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2162,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>57768</v>
+        <v>63154</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>6.9473752033633485E-2</v>
+        <v>-1.7283871071664438E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2177,11 +2188,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>53179</v>
+        <v>59610</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>0.11074880438781312</v>
+        <v>3.2105949633791514E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2192,11 +2203,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>53988</v>
+        <v>60956</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>0.10732651002827427</v>
+        <v>-7.8870351692322954E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2207,11 +2218,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>55235</v>
+        <v>60785</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>9.5857000212797305E-2</v>
+        <v>5.0089211176769085E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2222,11 +2233,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>55911</v>
+        <v>59085</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>5.1696941942705951E-2</v>
+        <v>-2.1370783086551671E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2237,11 +2248,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>57381</v>
+        <v>62424</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>6.7551756638174781E-2</v>
+        <v>-1.4397607982059865E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2252,11 +2263,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>53632</v>
+        <v>61710</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>0.1282184655396619</v>
+        <v>-3.0884265279583875E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2267,11 +2278,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>52615</v>
+        <v>59994</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>0.11501522210821993</v>
+        <v>-9.0996249137974532E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2282,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>56737</v>
+        <v>60156</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>5.3831401650963062E-2</v>
+        <v>-3.1851913616276163E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -4413,7 +4424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -4425,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>210</v>
       </c>
@@ -4437,7 +4448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -4449,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -4460,8 +4471,12 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212" s="2">
+        <f>AVERAGE(D212:D241)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -4473,7 +4488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -4485,7 +4500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -4497,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -4509,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -4521,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -4533,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -4545,7 +4560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -4557,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -4569,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -4581,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -4593,7 +4608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>224</v>
       </c>
@@ -7343,5 +7358,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDCC527-C035-4A2A-A70F-ED8182797227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E34417-F61F-4757-8C45-8C84BF2C5FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="2840" windowWidth="14070" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="best-feasible-slns" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="276">
   <si>
     <t>Problem</t>
   </si>
@@ -862,9 +862,6 @@
   <si>
     <t>avg</t>
     <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process finished with exit code 0</t>
   </si>
 </sst>
 </file>
@@ -1827,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="C242" sqref="C242:C271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1857,15 +1854,15 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>24165</v>
+        <v>23315</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>8.8593576965669985E-3</v>
+        <v>4.3722570854353798E-2</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>-3.0421530393434051E-2</v>
+        <v>2.0365676258972273E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1876,11 +1873,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>24351</v>
+        <v>22748</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>-3.1721183158935485E-3</v>
+        <v>6.2865617533163054E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1891,11 +1888,11 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>24284</v>
+        <v>22173</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>-3.1123943781580399E-2</v>
+        <v>5.8511315867691392E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1906,11 +1903,11 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>25361</v>
+        <v>23482</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>-7.7632361689470547E-2</v>
+        <v>2.2095691340188665E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1921,11 +1918,11 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>25331</v>
+        <v>23160</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>-5.5854278687841277E-2</v>
+        <v>3.4637989245967241E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1936,11 +1933,11 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>26710</v>
+        <v>25021</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>-8.5198878641368381E-2</v>
+        <v>-1.6576605858692559E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1951,11 +1948,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>27541</v>
+        <v>24551</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>-7.6198663592669302E-2</v>
+        <v>4.0639287249423624E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1966,11 +1963,11 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>24045</v>
+        <v>23443</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>-2.7125160187953867E-2</v>
+        <v>-1.4096539940196497E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1981,11 +1978,11 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>25264</v>
+        <v>23550</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>-4.327717211760819E-2</v>
+        <v>2.7502477700693757E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1996,11 +1993,11 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>24238</v>
+        <v>23005</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>7.086968989390029E-3</v>
+        <v>5.7596984965794108E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2011,11 +2008,11 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>44976</v>
+        <v>43035</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>-5.1897934841078651E-2</v>
+        <v>-6.501859344668709E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2026,11 +2023,11 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>42618</v>
+        <v>40819</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7158302973322365E-3</v>
+        <v>4.0568809495827945E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2041,11 +2038,11 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>43844</v>
+        <v>40509</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>-4.4700724361418226E-2</v>
+        <v>3.4764582539077389E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2056,11 +2053,11 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>44669</v>
+        <v>42453</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>9.3368817919716116E-3</v>
+        <v>5.8483033932135726E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2071,11 +2068,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>43383</v>
+        <v>40613</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>-2.7594864749632859E-2</v>
+        <v>3.8016959590695912E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2086,11 +2083,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>42151</v>
+        <v>39423</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>1.8077200829314882E-2</v>
+        <v>8.1626948074638342E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2101,11 +2098,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>42089</v>
+        <v>41206</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9043538289414174E-3</v>
+        <v>1.9114951557999478E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2116,11 +2113,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>44570</v>
+        <v>42286</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>9.995557529986673E-3</v>
+        <v>6.0728565082185694E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,11 +2128,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>43927</v>
+        <v>41867</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>-1.1187587762712645E-2</v>
+        <v>3.6233051725328605E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2146,11 +2143,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>45705</v>
+        <v>43605</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>-2.583381963460071E-2</v>
+        <v>2.1299995511065224E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2161,11 +2158,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>62036</v>
+        <v>60277</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>-3.7009795727324393E-2</v>
+        <v>-7.6058974959045166E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2176,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>65477</v>
+        <v>63154</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>-5.4702727082360139E-2</v>
+        <v>-1.7283871071664438E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2191,11 +2188,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>61016</v>
+        <v>59483</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>-2.0300324403866091E-2</v>
+        <v>5.3342697568643186E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2206,11 +2203,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>63149</v>
+        <v>61255</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>-4.4147555349790833E-2</v>
+        <v>-1.2830899981811869E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2221,11 +2218,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>63075</v>
+        <v>61284</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>-3.2476142148597995E-2</v>
+        <v>-3.1592214892537363E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2236,11 +2233,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>61201</v>
+        <v>59326</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>-3.8026425142895913E-2</v>
+        <v>-6.2246645974321137E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2251,11 +2248,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>64734</v>
+        <v>62792</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>-5.1935389515421364E-2</v>
+        <v>-2.0377652832396242E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2266,11 +2263,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>63575</v>
+        <v>61562</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>-3.3403771131339403E-2</v>
+        <v>-6.8270481144343308E-4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2281,11 +2278,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>61983</v>
+        <v>60302</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>-4.2554622979496408E-2</v>
+        <v>-1.4280187711301365E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2296,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>62785</v>
+        <v>60322</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>-4.702743266905695E-2</v>
+        <v>-5.9534728591678476E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2322,12 +2319,9 @@
       <c r="B33" s="1">
         <v>61472</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="2" t="e">
+      <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -4833,12 +4827,9 @@
       <c r="B242" s="1">
         <v>115868</v>
       </c>
-      <c r="C242" s="1">
-        <v>104870</v>
-      </c>
       <c r="D242" s="2">
         <f t="shared" si="3"/>
-        <v>9.4918355369903687E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4848,12 +4839,9 @@
       <c r="B243" s="1">
         <v>114667</v>
       </c>
-      <c r="C243" s="1">
-        <v>103733</v>
-      </c>
       <c r="D243" s="2">
         <f t="shared" si="3"/>
-        <v>9.5354373969843115E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4863,12 +4851,9 @@
       <c r="B244" s="1">
         <v>116661</v>
       </c>
-      <c r="C244" s="1">
-        <v>106908</v>
-      </c>
       <c r="D244" s="2">
         <f t="shared" si="3"/>
-        <v>8.3601203487026515E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4878,12 +4863,9 @@
       <c r="B245" s="1">
         <v>115237</v>
       </c>
-      <c r="C245" s="1">
-        <v>102987</v>
-      </c>
       <c r="D245" s="2">
         <f t="shared" si="3"/>
-        <v>0.10630266320712965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4893,12 +4875,9 @@
       <c r="B246" s="1">
         <v>116353</v>
       </c>
-      <c r="C246" s="1">
-        <v>106647</v>
-      </c>
       <c r="D246" s="2">
         <f t="shared" si="3"/>
-        <v>8.3418562477976507E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4908,12 +4887,9 @@
       <c r="B247" s="1">
         <v>115604</v>
       </c>
-      <c r="C247" s="1">
-        <v>102998</v>
-      </c>
       <c r="D247" s="2">
         <f t="shared" si="3"/>
-        <v>0.10904466973461126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4923,12 +4899,9 @@
       <c r="B248" s="1">
         <v>113952</v>
       </c>
-      <c r="C248" s="1">
-        <v>103276</v>
-      </c>
       <c r="D248" s="2">
         <f t="shared" si="3"/>
-        <v>9.3688570626228582E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4938,12 +4911,9 @@
       <c r="B249" s="1">
         <v>114199</v>
       </c>
-      <c r="C249" s="1">
-        <v>103599</v>
-      </c>
       <c r="D249" s="2">
         <f t="shared" si="3"/>
-        <v>9.2820427499365143E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4953,12 +4923,9 @@
       <c r="B250" s="1">
         <v>115247</v>
       </c>
-      <c r="C250" s="1">
-        <v>104145</v>
-      </c>
       <c r="D250" s="2">
         <f t="shared" si="3"/>
-        <v>9.6332225567693733E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4968,12 +4935,9 @@
       <c r="B251" s="1">
         <v>116947</v>
       </c>
-      <c r="C251" s="1">
-        <v>108080</v>
-      </c>
       <c r="D251" s="2">
         <f t="shared" si="3"/>
-        <v>7.5820670902203569E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4983,12 +4947,9 @@
       <c r="B252" s="1">
         <v>217995</v>
       </c>
-      <c r="C252" s="1">
-        <v>192044</v>
-      </c>
       <c r="D252" s="2">
         <f t="shared" si="3"/>
-        <v>0.11904401477098099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4998,12 +4959,9 @@
       <c r="B253" s="1">
         <v>214534</v>
       </c>
-      <c r="C253" s="1">
-        <v>191024</v>
-      </c>
       <c r="D253" s="2">
         <f t="shared" si="3"/>
-        <v>0.10958635927172383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -5013,12 +4971,9 @@
       <c r="B254" s="1">
         <v>215854</v>
       </c>
-      <c r="C254" s="1">
-        <v>190707</v>
-      </c>
       <c r="D254" s="2">
         <f t="shared" si="3"/>
-        <v>0.1165000416948493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -5028,12 +4983,9 @@
       <c r="B255" s="1">
         <v>217836</v>
       </c>
-      <c r="C255" s="1">
-        <v>195671</v>
-      </c>
       <c r="D255" s="2">
         <f t="shared" si="3"/>
-        <v>0.10175085844396702</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -5043,12 +4995,9 @@
       <c r="B256" s="1">
         <v>215566</v>
       </c>
-      <c r="C256" s="1">
-        <v>189517</v>
-      </c>
       <c r="D256" s="2">
         <f t="shared" si="3"/>
-        <v>0.12084002115361421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -5058,12 +5007,9 @@
       <c r="B257" s="1">
         <v>215762</v>
       </c>
-      <c r="C257" s="1">
-        <v>191609</v>
-      </c>
       <c r="D257" s="2">
         <f t="shared" si="3"/>
-        <v>0.11194278881360017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5073,12 +5019,9 @@
       <c r="B258" s="1">
         <v>215772</v>
       </c>
-      <c r="C258" s="1">
-        <v>193133</v>
-      </c>
       <c r="D258" s="2">
         <f t="shared" si="3"/>
-        <v>0.10492093506108299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5088,12 +5031,9 @@
       <c r="B259" s="1">
         <v>216336</v>
       </c>
-      <c r="C259" s="1">
-        <v>194033</v>
-      </c>
       <c r="D259" s="2">
         <f t="shared" ref="D259:D271" si="4">(B259-C259)/B259</f>
-        <v>0.10309426077952814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5103,12 +5043,9 @@
       <c r="B260" s="1">
         <v>217290</v>
       </c>
-      <c r="C260" s="1">
-        <v>194908</v>
-      </c>
       <c r="D260" s="2">
         <f t="shared" si="4"/>
-        <v>0.10300520042339731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5118,12 +5055,9 @@
       <c r="B261" s="1">
         <v>214624</v>
       </c>
-      <c r="C261" s="1">
-        <v>190405</v>
-      </c>
       <c r="D261" s="2">
         <f t="shared" si="4"/>
-        <v>0.11284385716415685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5133,12 +5067,9 @@
       <c r="B262" s="1">
         <v>301627</v>
       </c>
-      <c r="C262" s="1">
-        <v>293027</v>
-      </c>
       <c r="D262" s="2">
         <f t="shared" si="4"/>
-        <v>2.8512036389315279E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5148,12 +5079,9 @@
       <c r="B263" s="1">
         <v>299985</v>
       </c>
-      <c r="C263" s="1">
-        <v>291678</v>
-      </c>
       <c r="D263" s="2">
         <f t="shared" si="4"/>
-        <v>2.7691384569228462E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5163,12 +5091,9 @@
       <c r="B264" s="1">
         <v>304995</v>
       </c>
-      <c r="C264" s="1">
-        <v>295336</v>
-      </c>
       <c r="D264" s="2">
         <f t="shared" si="4"/>
-        <v>3.1669371629043097E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5178,12 +5103,9 @@
       <c r="B265" s="1">
         <v>301935</v>
       </c>
-      <c r="C265" s="1">
-        <v>292774</v>
-      </c>
       <c r="D265" s="2">
         <f t="shared" si="4"/>
-        <v>3.0340967426764037E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5193,12 +5115,9 @@
       <c r="B266" s="1">
         <v>304404</v>
       </c>
-      <c r="C266" s="1">
-        <v>295416</v>
-      </c>
       <c r="D266" s="2">
         <f t="shared" si="4"/>
-        <v>2.9526550242440965E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5208,12 +5127,9 @@
       <c r="B267" s="1">
         <v>296894</v>
       </c>
-      <c r="C267" s="1">
-        <v>287875</v>
-      </c>
       <c r="D267" s="2">
         <f t="shared" si="4"/>
-        <v>3.0377845291585548E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5223,12 +5139,9 @@
       <c r="B268" s="1">
         <v>303233</v>
       </c>
-      <c r="C268" s="1">
-        <v>293504</v>
-      </c>
       <c r="D268" s="2">
         <f t="shared" si="4"/>
-        <v>3.2084238852631473E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5238,12 +5151,9 @@
       <c r="B269" s="1">
         <v>306944</v>
       </c>
-      <c r="C269" s="1">
-        <v>296365</v>
-      </c>
       <c r="D269" s="2">
         <f t="shared" si="4"/>
-        <v>3.4465570266889074E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5253,12 +5163,9 @@
       <c r="B270" s="1">
         <v>303057</v>
       </c>
-      <c r="C270" s="1">
-        <v>295285</v>
-      </c>
       <c r="D270" s="2">
         <f t="shared" si="4"/>
-        <v>2.5645340645489133E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5268,12 +5175,9 @@
       <c r="B271" s="1">
         <v>300460</v>
       </c>
-      <c r="C271" s="1">
-        <v>289659</v>
-      </c>
       <c r="D271" s="2">
         <f t="shared" si="4"/>
-        <v>3.594821274046462E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E34417-F61F-4757-8C45-8C84BF2C5FCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A066414-93C3-4C07-AD08-75FCA87B8520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="2840" windowWidth="14070" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="best-feasible-slns" sheetId="1" r:id="rId1"/>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1854,15 +1854,15 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>23315</v>
+        <v>23922</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>4.3722570854353798E-2</v>
+        <v>1.8826135105204873E-2</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>2.0365676258972273E-2</v>
+        <v>7.6385585809379481E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,11 +1873,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>22748</v>
+        <v>24008</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>6.2865617533163054E-2</v>
+        <v>1.095822690945044E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,11 +1888,11 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>22173</v>
+        <v>24248</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>5.8511315867691392E-2</v>
+        <v>-2.959534626979746E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1903,11 +1903,11 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>23482</v>
+        <v>23313</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>2.2095691340188665E-3</v>
+        <v>9.3906688195801811E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,11 +1918,11 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>23160</v>
+        <v>24709</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>3.4637989245967241E-2</v>
+        <v>-2.9927889625276146E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,11 +1933,11 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>25021</v>
+        <v>25496</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>-1.6576605858692559E-2</v>
+        <v>-3.5875350424572378E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,11 +1948,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>24551</v>
+        <v>25489</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>4.0639287249423624E-2</v>
+        <v>3.9857762494627021E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1963,11 +1963,11 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>23443</v>
+        <v>23510</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4096539940196497E-3</v>
+        <v>-4.2716787697565147E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,11 +1978,11 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>23550</v>
+        <v>24385</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>2.7502477700693757E-2</v>
+        <v>-6.9788569540799473E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,11 +1993,11 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>23005</v>
+        <v>24368</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>5.7596984965794108E-2</v>
+        <v>1.7615009626807587E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,11 +2008,11 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>43035</v>
+        <v>41955</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>-6.501859344668709E-3</v>
+        <v>1.8757162569871599E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,11 +2023,11 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>40819</v>
+        <v>41201</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>4.0568809495827945E-2</v>
+        <v>3.1590081090609942E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,11 +2038,11 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>40509</v>
+        <v>41729</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>3.4764582539077389E-2</v>
+        <v>5.694815097216927E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,11 +2053,11 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>42453</v>
+        <v>43021</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>5.8483033932135726E-2</v>
+        <v>4.588600576624529E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,11 +2068,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>40613</v>
+        <v>40829</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>3.8016959590695912E-2</v>
+        <v>3.2900658486901324E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,11 +2083,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>39423</v>
+        <v>41028</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>8.1626948074638342E-2</v>
+        <v>4.4237892235655878E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,11 +2098,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>41206</v>
+        <v>40077</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>1.9114951557999478E-2</v>
+        <v>4.5990144968935227E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,11 +2113,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>42286</v>
+        <v>43892</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>6.0728565082185694E-2</v>
+        <v>2.5055530875166591E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,11 +2128,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>41867</v>
+        <v>43449</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>3.6233051725328605E-2</v>
+        <v>-1.8415782325452914E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,11 +2143,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>43605</v>
+        <v>44177</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>2.1299995511065224E-2</v>
+        <v>8.4616420523409789E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,11 +2158,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>60277</v>
+        <v>60079</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>-7.6058974959045166E-3</v>
+        <v>-4.2960783658185951E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>63154</v>
+        <v>62160</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7283871071664438E-2</v>
+        <v>-1.272531048146776E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,11 +2188,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>59483</v>
+        <v>59439</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>5.3342697568643186E-3</v>
+        <v>6.0700311026387075E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,11 +2203,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>61255</v>
+        <v>60077</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>-1.2830899981811869E-2</v>
+        <v>6.6469352998561482E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,11 +2218,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>61284</v>
+        <v>60412</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>-3.1592214892537363E-3</v>
+        <v>1.1114566793799414E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,11 +2233,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>59326</v>
+        <v>59430</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>-6.2246645974321137E-3</v>
+        <v>-7.9886022490205065E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,11 +2248,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>62792</v>
+        <v>61439</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>-2.0377652832396242E-2</v>
+        <v>1.6087620657154929E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,11 +2263,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>61562</v>
+        <v>61071</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>-6.8270481144343308E-4</v>
+        <v>7.2984395318595576E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,11 +2278,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>60302</v>
+        <v>58841</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4280187711301365E-2</v>
+        <v>1.0293845558676601E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>60322</v>
+        <v>59784</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>-5.9534728591678476E-3</v>
+        <v>3.0184274159926624E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC72125-E5CA-4010-BD3A-A5006DA1FEBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052B36E-55D3-42E9-AC08-DA81D3930EE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1854,15 +1854,15 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>22408</v>
+        <v>23922</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>8.0923670070956896E-2</v>
+        <v>1.8826135105204873E-2</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>1.5978611400744545E-2</v>
+        <v>6.1078138994915317E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,11 +1873,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>22799</v>
+        <v>24717</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>6.0764604103155637E-2</v>
+        <v>-1.8249979401829118E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,11 +1888,11 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>22146</v>
+        <v>24623</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>5.9657764001528599E-2</v>
+        <v>-4.5518237017536413E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1903,11 +1903,11 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>24225</v>
+        <v>23313</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>-2.9361774453981474E-2</v>
+        <v>9.3906688195801811E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,11 +1918,11 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>22788</v>
+        <v>24709</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>5.0143803926472427E-2</v>
+        <v>-2.9927889625276146E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,11 +1933,11 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>25419</v>
+        <v>25496</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>-3.274692235810344E-2</v>
+        <v>-3.5875350424572378E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,11 +1948,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>25399</v>
+        <v>25470</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>7.5026376460474381E-3</v>
+        <v>4.7282247665194795E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1963,11 +1963,11 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>23400</v>
+        <v>23510</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>4.2716787697565144E-4</v>
+        <v>-4.2716787697565147E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,11 +1978,11 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>24000</v>
+        <v>24385</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>8.9197224975222991E-3</v>
+        <v>-6.9788569540799473E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,11 +1993,11 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>23252</v>
+        <v>24368</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>4.7478595715046493E-2</v>
+        <v>1.7615009626807587E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,11 +2008,11 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>44255</v>
+        <v>41955</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>-3.5035198914797575E-2</v>
+        <v>1.8757162569871599E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,11 +2023,11 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>42484</v>
+        <v>41201</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>1.4337760018803621E-3</v>
+        <v>3.1590081090609942E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,11 +2038,11 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>41209</v>
+        <v>41729</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>1.8085207777354173E-2</v>
+        <v>5.694815097216927E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,11 +2053,11 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>41720</v>
+        <v>43021</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>7.4739410068751386E-2</v>
+        <v>4.588600576624529E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,11 +2068,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>40307</v>
+        <v>40829</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>4.5265052821071579E-2</v>
+        <v>3.2900658486901324E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,11 +2083,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>40425</v>
+        <v>41028</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>5.8284995457404433E-2</v>
+        <v>4.4237892235655878E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,11 +2098,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>40976</v>
+        <v>40077</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>2.4589968816206051E-2</v>
+        <v>4.5990144968935227E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,11 +2113,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>43089</v>
+        <v>43892</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>4.2892047978676143E-2</v>
+        <v>2.5055530875166591E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,11 +2128,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>42157</v>
+        <v>43449</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>2.9557330632351924E-2</v>
+        <v>-1.8415782325452914E-4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,11 +2143,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>44326</v>
+        <v>44177</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>5.117385644386587E-3</v>
+        <v>8.4616420523409789E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,11 +2158,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>59249</v>
+        <v>60079</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>9.5784159673698646E-3</v>
+        <v>-4.2960783658185951E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>63154</v>
+        <v>62160</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>-1.7283871071664438E-2</v>
+        <v>-1.272531048146776E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,11 +2188,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>59610</v>
+        <v>59439</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>3.2105949633791514E-3</v>
+        <v>6.0700311026387075E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,11 +2203,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>60956</v>
+        <v>60077</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>-7.8870351692322954E-3</v>
+        <v>6.6469352998561482E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,11 +2218,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>60785</v>
+        <v>60468</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>5.0089211176769085E-3</v>
+        <v>1.0197901491218018E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,11 +2233,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>59085</v>
+        <v>59430</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>-2.1370783086551671E-3</v>
+        <v>-7.9886022490205065E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,11 +2248,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>62424</v>
+        <v>61439</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>-1.4397607982059865E-2</v>
+        <v>1.6087620657154929E-3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,11 +2263,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>61710</v>
+        <v>61071</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>-3.0884265279583875E-3</v>
+        <v>7.2984395318595576E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,11 +2278,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>59994</v>
+        <v>58841</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>-9.0996249137974532E-3</v>
+        <v>1.0293845558676601E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>60156</v>
+        <v>59821</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>-3.1851913616276163E-3</v>
+        <v>2.4014008171433336E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A066414-93C3-4C07-AD08-75FCA87B8520}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EAFBE3-58AF-4E02-8EA7-761861FBB102}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>7.6385585809379481E-3</v>
+        <v>6.4034814524298435E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,11 +1873,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>24008</v>
+        <v>24717</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>1.095822690945044E-2</v>
+        <v>-1.8249979401829118E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,11 +1888,11 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>24248</v>
+        <v>24430</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>-2.959534626979746E-2</v>
+        <v>-3.7323255912700096E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,11 +1948,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>25489</v>
+        <v>25470</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>3.9857762494627021E-3</v>
+        <v>4.7282247665194795E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2173,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>62160</v>
+        <v>62175</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>-1.272531048146776E-3</v>
+        <v>-1.5141508674151511E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>59784</v>
+        <v>59821</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>3.0184274159926624E-3</v>
+        <v>2.4014008171433336E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2052B36E-55D3-42E9-AC08-DA81D3930EE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF5EDDF-8D04-4C88-B73E-5AE60E3D0023}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1854,15 +1854,15 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>23922</v>
+        <v>24450</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>1.8826135105204873E-2</v>
+        <v>-2.8300725975144579E-3</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>6.1078138994915317E-3</v>
+        <v>-9.5859493907530392E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,11 +1873,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>24717</v>
+        <v>25046</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>-1.8249979401829118E-2</v>
+        <v>-3.1803575842465188E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1903,11 +1903,11 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>23313</v>
+        <v>23729</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>9.3906688195801811E-3</v>
+        <v>-8.2858842525707493E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,11 +1918,11 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>24709</v>
+        <v>24922</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>-2.9927889625276146E-2</v>
+        <v>-3.8806218998791213E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,11 +1933,11 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>25496</v>
+        <v>25828</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>-3.5875350424572378E-2</v>
+        <v>-4.9364157152724172E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,11 +1948,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>25470</v>
+        <v>25558</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>4.7282247665194795E-3</v>
+        <v>1.2895158454144036E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1963,11 +1963,11 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>23510</v>
+        <v>24159</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>-4.2716787697565147E-3</v>
+        <v>-3.1994873985476291E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,11 +1978,11 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>24385</v>
+        <v>25029</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>-6.9788569540799473E-3</v>
+        <v>-3.3572844400396429E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,11 +1993,11 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>24368</v>
+        <v>24665</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>1.7615009626807587E-3</v>
+        <v>-1.0405145221416574E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,11 +2008,11 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>41955</v>
+        <v>42632</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>1.8757162569871599E-2</v>
+        <v>2.9234979067754986E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,11 +2023,11 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>41201</v>
+        <v>42039</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>3.1590081090609942E-2</v>
+        <v>1.1893289458220708E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,11 +2038,11 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>41729</v>
+        <v>42340</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>5.694815097216927E-3</v>
+        <v>-8.8638963019443389E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,11 +2053,11 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>43021</v>
+        <v>45134</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>4.588600576624529E-2</v>
+        <v>-9.7582612552672438E-4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,11 +2068,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>40829</v>
+        <v>42140</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>3.2900658486901324E-2</v>
+        <v>1.8475531763702687E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,11 +2083,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>41028</v>
+        <v>43451</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>4.4237892235655878E-2</v>
+        <v>-1.2206769632166235E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,11 +2098,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>40077</v>
+        <v>41807</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>4.5990144968935227E-2</v>
+        <v>4.8084934180770787E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,11 +2113,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>43892</v>
+        <v>45354</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>2.5055530875166591E-2</v>
+        <v>-7.4189249222567748E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,11 +2128,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>43449</v>
+        <v>44610</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>-1.8415782325452914E-4</v>
+        <v>-2.6910061923068069E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,11 +2143,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>44177</v>
+        <v>43753</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>8.4616420523409789E-3</v>
+        <v>1.7978183776989721E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,11 +2158,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>60079</v>
+        <v>60278</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>-4.2960783658185951E-3</v>
+        <v>-7.6226137541372738E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>62160</v>
+        <v>62607</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>-1.272531048146776E-3</v>
+        <v>-8.4728016623443567E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,11 +2188,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>59439</v>
+        <v>59760</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>6.0700311026387075E-3</v>
+        <v>7.0231764823918937E-4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,11 +2203,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>60077</v>
+        <v>60390</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>6.6469352998561482E-3</v>
+        <v>1.4715851783263611E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,11 +2218,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>60468</v>
+        <v>61324</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>1.0197901491218018E-2</v>
+        <v>-3.8139824196690183E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,11 +2233,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>59430</v>
+        <v>59200</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>-7.9886022490205065E-3</v>
+        <v>-4.0875862887769466E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,11 +2248,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>61439</v>
+        <v>61550</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>1.6087620657154929E-3</v>
+        <v>-1.9500146251096883E-4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,11 +2263,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>61071</v>
+        <v>61342</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>7.2984395318595576E-3</v>
+        <v>2.893368010403121E-3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,11 +2278,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>58841</v>
+        <v>59251</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>1.0293845558676601E-2</v>
+        <v>3.3976418347265907E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>59821</v>
+        <v>60183</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>2.4014008171433336E-3</v>
+        <v>-3.6354540148419911E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -4467,13 +4467,16 @@
       <c r="B212" s="1">
         <v>56693</v>
       </c>
+      <c r="C212" s="1">
+        <v>52928</v>
+      </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6.6410315206462872E-2</v>
       </c>
       <c r="E212" s="2">
         <f>AVERAGE(D212:D241)</f>
-        <v>1</v>
+        <v>5.4441791582874183E-2</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -4483,9 +4486,12 @@
       <c r="B213" s="1">
         <v>58318</v>
       </c>
+      <c r="C213" s="1">
+        <v>55108</v>
+      </c>
       <c r="D213" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5.5043039884769711E-2</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -4495,9 +4501,12 @@
       <c r="B214" s="1">
         <v>56553</v>
       </c>
+      <c r="C214" s="1">
+        <v>52365</v>
+      </c>
       <c r="D214" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7.4054426820858305E-2</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -4507,9 +4516,12 @@
       <c r="B215" s="1">
         <v>56863</v>
       </c>
+      <c r="C215" s="1">
+        <v>53315</v>
+      </c>
       <c r="D215" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6.2395582364630782E-2</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -4519,9 +4531,12 @@
       <c r="B216" s="1">
         <v>56629</v>
       </c>
+      <c r="C216" s="1">
+        <v>52510</v>
+      </c>
       <c r="D216" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7.2736583729184692E-2</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -4531,9 +4546,12 @@
       <c r="B217" s="1">
         <v>57119</v>
       </c>
+      <c r="C217" s="1">
+        <v>53291</v>
+      </c>
       <c r="D217" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6.701798000665278E-2</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -4543,9 +4561,12 @@
       <c r="B218" s="1">
         <v>56292</v>
       </c>
+      <c r="C218" s="1">
+        <v>52596</v>
+      </c>
       <c r="D218" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6.5657642293753996E-2</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -4555,9 +4576,12 @@
       <c r="B219" s="1">
         <v>56403</v>
       </c>
+      <c r="C219" s="1">
+        <v>52303</v>
+      </c>
       <c r="D219" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7.2691168909455164E-2</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -4567,9 +4591,12 @@
       <c r="B220" s="1">
         <v>57442</v>
       </c>
+      <c r="C220" s="1">
+        <v>53839</v>
+      </c>
       <c r="D220" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6.2724139131645831E-2</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -4579,9 +4606,12 @@
       <c r="B221" s="1">
         <v>56447</v>
       </c>
+      <c r="C221" s="1">
+        <v>52129</v>
+      </c>
       <c r="D221" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7.6496536574131482E-2</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -4591,9 +4621,12 @@
       <c r="B222" s="1">
         <v>107689</v>
       </c>
+      <c r="C222" s="1">
+        <v>102563</v>
+      </c>
       <c r="D222" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.7600033429598197E-2</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -4603,9 +4636,12 @@
       <c r="B223" s="1">
         <v>108338</v>
       </c>
+      <c r="C223" s="1">
+        <v>101032</v>
+      </c>
       <c r="D223" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6.7437095017445409E-2</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -4615,9 +4651,12 @@
       <c r="B224" s="1">
         <v>106385</v>
       </c>
+      <c r="C224" s="1">
+        <v>100470</v>
+      </c>
       <c r="D224" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5.559994360107158E-2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4627,9 +4666,12 @@
       <c r="B225" s="1">
         <v>106796</v>
       </c>
+      <c r="C225" s="1">
+        <v>98965</v>
+      </c>
       <c r="D225" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7.332671635641784E-2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4639,9 +4681,12 @@
       <c r="B226" s="1">
         <v>107396</v>
       </c>
+      <c r="C226" s="1">
+        <v>100133</v>
+      </c>
       <c r="D226" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6.7628217065812513E-2</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4651,9 +4696,12 @@
       <c r="B227" s="1">
         <v>107246</v>
       </c>
+      <c r="C227" s="1">
+        <v>97511</v>
+      </c>
       <c r="D227" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>9.0772616228111072E-2</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4663,9 +4711,12 @@
       <c r="B228" s="1">
         <v>106308</v>
       </c>
+      <c r="C228" s="1">
+        <v>97432</v>
+      </c>
       <c r="D228" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.3493246039808858E-2</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4675,9 +4726,12 @@
       <c r="B229" s="1">
         <v>103993</v>
       </c>
+      <c r="C229" s="1">
+        <v>96133</v>
+      </c>
       <c r="D229" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7.5582010327618201E-2</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4687,9 +4741,12 @@
       <c r="B230" s="1">
         <v>106835</v>
       </c>
+      <c r="C230" s="1">
+        <v>98233</v>
+      </c>
       <c r="D230" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.0516684607104413E-2</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4699,9 +4756,12 @@
       <c r="B231" s="1">
         <v>105751</v>
       </c>
+      <c r="C231" s="1">
+        <v>99862</v>
+      </c>
       <c r="D231" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5.5687416667454678E-2</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4711,9 +4771,12 @@
       <c r="B232" s="1">
         <v>150083</v>
       </c>
+      <c r="C232" s="1">
+        <v>146225</v>
+      </c>
       <c r="D232" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5705776137204081E-2</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4723,9 +4786,12 @@
       <c r="B233" s="1">
         <v>149907</v>
       </c>
+      <c r="C233" s="1">
+        <v>146249</v>
+      </c>
       <c r="D233" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.4401795780050299E-2</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4735,9 +4801,12 @@
       <c r="B234" s="1">
         <v>152993</v>
       </c>
+      <c r="C234" s="1">
+        <v>149089</v>
+      </c>
       <c r="D234" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.5517507336936984E-2</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4747,9 +4816,12 @@
       <c r="B235" s="1">
         <v>153169</v>
       </c>
+      <c r="C235" s="1">
+        <v>149058</v>
+      </c>
       <c r="D235" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.6839634651920428E-2</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4759,9 +4831,12 @@
       <c r="B236" s="1">
         <v>150287</v>
       </c>
+      <c r="C236" s="1">
+        <v>147160</v>
+      </c>
       <c r="D236" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.0806856215108426E-2</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4771,9 +4846,12 @@
       <c r="B237" s="1">
         <v>148544</v>
       </c>
+      <c r="C237" s="1">
+        <v>144512</v>
+      </c>
       <c r="D237" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.7143472641102971E-2</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4783,9 +4861,12 @@
       <c r="B238" s="1">
         <v>147471</v>
       </c>
+      <c r="C238" s="1">
+        <v>142847</v>
+      </c>
       <c r="D238" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3.1355317316624963E-2</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4795,9 +4876,12 @@
       <c r="B239" s="1">
         <v>152841</v>
       </c>
+      <c r="C239" s="1">
+        <v>149149</v>
+      </c>
       <c r="D239" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.415582206345156E-2</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4807,9 +4891,12 @@
       <c r="B240" s="1">
         <v>149568</v>
       </c>
+      <c r="C240" s="1">
+        <v>145140</v>
+      </c>
       <c r="D240" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.9605263157894735E-2</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4819,9 +4906,12 @@
       <c r="B241" s="1">
         <v>149572</v>
       </c>
+      <c r="C241" s="1">
+        <v>145855</v>
+      </c>
       <c r="D241" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.4850907923942983E-2</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EAFBE3-58AF-4E02-8EA7-761861FBB102}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BBDAF7-B3A2-4686-A8F3-CD0DE3654553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1854,15 +1854,15 @@
         <v>24381</v>
       </c>
       <c r="C2" s="1">
-        <v>23922</v>
+        <v>23067</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>1.8826135105204873E-2</v>
+        <v>5.3894425987449243E-2</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>6.4034814524298435E-3</v>
+        <v>3.0142855661636984E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,11 +1873,11 @@
         <v>24274</v>
       </c>
       <c r="C3" s="1">
-        <v>24717</v>
+        <v>23295</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>-1.8249979401829118E-2</v>
+        <v>4.0331218587789402E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,11 +1888,11 @@
         <v>23551</v>
       </c>
       <c r="C4" s="1">
-        <v>24430</v>
+        <v>22887</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>-3.7323255912700096E-2</v>
+        <v>2.8194131883996432E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1903,11 +1903,11 @@
         <v>23534</v>
       </c>
       <c r="C5" s="1">
-        <v>23313</v>
+        <v>22003</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>9.3906688195801811E-3</v>
+        <v>6.5054814311209311E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,11 +1918,11 @@
         <v>23991</v>
       </c>
       <c r="C6" s="1">
-        <v>24709</v>
+        <v>23072</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>-2.9927889625276146E-2</v>
+        <v>3.8306031428452333E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,11 +1933,11 @@
         <v>24613</v>
       </c>
       <c r="C7" s="1">
-        <v>25496</v>
+        <v>23976</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>-3.5875350424572378E-2</v>
+        <v>2.5880632186243042E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,11 +1948,11 @@
         <v>25591</v>
       </c>
       <c r="C8" s="1">
-        <v>25470</v>
+        <v>24326</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>4.7282247665194795E-3</v>
+        <v>4.9431440740885464E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1963,11 +1963,11 @@
         <v>23410</v>
       </c>
       <c r="C9" s="1">
-        <v>23510</v>
+        <v>22942</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>-4.2716787697565147E-3</v>
+        <v>1.9991456642460485E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,11 +1978,11 @@
         <v>24216</v>
       </c>
       <c r="C10" s="1">
-        <v>24385</v>
+        <v>23192</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>-6.9788569540799473E-3</v>
+        <v>4.2286091840105712E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,11 +1993,11 @@
         <v>24411</v>
       </c>
       <c r="C11" s="1">
-        <v>24368</v>
+        <v>23956</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>1.7615009626807587E-3</v>
+        <v>1.8639138093482447E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,11 +2008,11 @@
         <v>42757</v>
       </c>
       <c r="C12" s="1">
-        <v>41955</v>
+        <v>41124</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>1.8757162569871599E-2</v>
+        <v>3.8192576654115115E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,11 +2023,11 @@
         <v>42545</v>
       </c>
       <c r="C13" s="1">
-        <v>41201</v>
+        <v>40847</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>3.1590081090609942E-2</v>
+        <v>3.9910682806440237E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,11 +2038,11 @@
         <v>41968</v>
       </c>
       <c r="C14" s="1">
-        <v>41729</v>
+        <v>40503</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>5.694815097216927E-3</v>
+        <v>3.4907548608463589E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,11 +2053,11 @@
         <v>45090</v>
       </c>
       <c r="C15" s="1">
-        <v>43021</v>
+        <v>43163</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>4.588600576624529E-2</v>
+        <v>4.2736748724772677E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,11 +2068,11 @@
         <v>42218</v>
       </c>
       <c r="C16" s="1">
-        <v>40829</v>
+        <v>40707</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>3.2900658486901324E-2</v>
+        <v>3.5790421147377897E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,11 +2083,11 @@
         <v>42927</v>
       </c>
       <c r="C17" s="1">
-        <v>41028</v>
+        <v>41061</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>4.4237892235655878E-2</v>
+        <v>4.3469145293172126E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,11 +2098,11 @@
         <v>42009</v>
       </c>
       <c r="C18" s="1">
-        <v>40077</v>
+        <v>40528</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>4.5990144968935227E-2</v>
+        <v>3.5254350258277986E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,11 +2113,11 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1">
-        <v>43892</v>
+        <v>42859</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>2.5055530875166591E-2</v>
+        <v>4.8000888494002664E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,11 +2128,11 @@
         <v>43441</v>
       </c>
       <c r="C20" s="1">
-        <v>43449</v>
+        <v>41539</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>-1.8415782325452914E-4</v>
+        <v>4.3783522478764304E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,11 +2143,11 @@
         <v>44554</v>
       </c>
       <c r="C21" s="1">
-        <v>44177</v>
+        <v>41974</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>8.4616420523409789E-3</v>
+        <v>5.790725860753243E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,11 +2158,11 @@
         <v>59822</v>
       </c>
       <c r="C22" s="1">
-        <v>60079</v>
+        <v>59412</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>-4.2960783658185951E-3</v>
+        <v>6.8536658754304435E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,11 +2173,11 @@
         <v>62081</v>
       </c>
       <c r="C23" s="1">
-        <v>62175</v>
+        <v>62008</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>-1.5141508674151511E-3</v>
+        <v>1.175883120439426E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,11 +2188,11 @@
         <v>59802</v>
       </c>
       <c r="C24" s="1">
-        <v>59439</v>
+        <v>59299</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>6.0700311026387075E-3</v>
+        <v>8.411089930102672E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,11 +2203,11 @@
         <v>60479</v>
       </c>
       <c r="C25" s="1">
-        <v>60077</v>
+        <v>59815</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>6.6469352998561482E-3</v>
+        <v>1.0979017510210156E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,11 +2218,11 @@
         <v>61091</v>
       </c>
       <c r="C26" s="1">
-        <v>60412</v>
+        <v>60043</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>1.1114566793799414E-2</v>
+        <v>1.7154736376880392E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,11 +2233,11 @@
         <v>58959</v>
       </c>
       <c r="C27" s="1">
-        <v>59430</v>
+        <v>58338</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>-7.9886022490205065E-3</v>
+        <v>1.053274309265761E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,11 +2248,11 @@
         <v>61538</v>
       </c>
       <c r="C28" s="1">
-        <v>61439</v>
+        <v>60718</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>1.6087620657154929E-3</v>
+        <v>1.3325099938249537E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,11 +2263,11 @@
         <v>61520</v>
       </c>
       <c r="C29" s="1">
-        <v>61071</v>
+        <v>60478</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>7.2984395318595576E-3</v>
+        <v>1.6937581274382316E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,11 +2278,11 @@
         <v>59453</v>
       </c>
       <c r="C30" s="1">
-        <v>58841</v>
+        <v>58802</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>1.0293845558676601E-2</v>
+        <v>1.0949825912905994E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,11 +2293,11 @@
         <v>59965</v>
       </c>
       <c r="C31" s="1">
-        <v>59821</v>
+        <v>59605</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>2.4014008171433336E-3</v>
+        <v>6.003502042858334E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BBDAF7-B3A2-4686-A8F3-CD0DE3654553}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2372264E-337E-436A-ACEF-ABE529250DBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1824,8 +1824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1851,18 +1851,18 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>24381</v>
+        <v>24038</v>
       </c>
       <c r="C2" s="1">
-        <v>23067</v>
+        <v>23326</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>5.3894425987449243E-2</v>
+        <v>2.961976869955903E-2</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>3.0142855661636984E-2</v>
+        <v>7.6996391482580442E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1870,14 +1870,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>24274</v>
+        <v>24620</v>
       </c>
       <c r="C3" s="1">
-        <v>23295</v>
+        <v>24114</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>4.0331218587789402E-2</v>
+        <v>2.0552396425670187E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1885,14 +1885,14 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>23551</v>
+        <v>24347</v>
       </c>
       <c r="C4" s="1">
-        <v>22887</v>
+        <v>23959</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>2.8194131883996432E-2</v>
+        <v>1.5936254980079681E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1900,14 +1900,14 @@
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>23534</v>
+        <v>22913</v>
       </c>
       <c r="C5" s="1">
-        <v>22003</v>
+        <v>22709</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>6.5054814311209311E-2</v>
+        <v>8.9032427006502865E-3</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1915,14 +1915,14 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>23991</v>
+        <v>24664</v>
       </c>
       <c r="C6" s="1">
-        <v>23072</v>
+        <v>24219</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>3.8306031428452333E-2</v>
+        <v>1.8042491080116768E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1930,14 +1930,14 @@
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>24613</v>
+        <v>24906</v>
       </c>
       <c r="C7" s="1">
-        <v>23976</v>
+        <v>25258</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>2.5880632186243042E-2</v>
+        <v>-1.413314060868867E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1945,14 +1945,14 @@
         <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>25591</v>
+        <v>25313</v>
       </c>
       <c r="C8" s="1">
-        <v>24326</v>
+        <v>25071</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>4.9431440740885464E-2</v>
+        <v>9.5603049816299929E-3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1960,14 +1960,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>23410</v>
+        <v>23366</v>
       </c>
       <c r="C9" s="1">
-        <v>22942</v>
+        <v>23337</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>1.9991456642460485E-2</v>
+        <v>1.2411195754515108E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1975,14 +1975,14 @@
         <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>24216</v>
+        <v>24756</v>
       </c>
       <c r="C10" s="1">
-        <v>23192</v>
+        <v>24365</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>4.2286091840105712E-2</v>
+        <v>1.5794150912910001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1990,14 +1990,14 @@
         <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>24411</v>
+        <v>24096</v>
       </c>
       <c r="C11" s="1">
-        <v>23956</v>
+        <v>24220</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>1.8639138093482447E-2</v>
+        <v>-5.1460823373173968E-3</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2005,14 +2005,14 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>42757</v>
+        <v>42505</v>
       </c>
       <c r="C12" s="1">
-        <v>41124</v>
+        <v>41351</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>3.8192576654115115E-2</v>
+        <v>2.7149747088577814E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2020,14 +2020,14 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>42545</v>
+        <v>41934</v>
       </c>
       <c r="C13" s="1">
-        <v>40847</v>
+        <v>40983</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>3.9910682806440237E-2</v>
+        <v>2.267849477750751E-2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2035,14 +2035,14 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>41968</v>
+        <v>41737</v>
       </c>
       <c r="C14" s="1">
-        <v>40503</v>
+        <v>41417</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>3.4907548608463589E-2</v>
+        <v>7.6670580060857274E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2050,14 +2050,14 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>45090</v>
+        <v>44801</v>
       </c>
       <c r="C15" s="1">
-        <v>43163</v>
+        <v>43992</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>4.2736748724772677E-2</v>
+        <v>1.8057632642128525E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2065,14 +2065,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>42218</v>
+        <v>42001</v>
       </c>
       <c r="C16" s="1">
-        <v>40707</v>
+        <v>40717</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>3.5790421147377897E-2</v>
+        <v>3.0570700697602437E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2080,14 +2080,14 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>42927</v>
+        <v>42946</v>
       </c>
       <c r="C17" s="1">
-        <v>41061</v>
+        <v>42666</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>4.3469145293172126E-2</v>
+        <v>6.5198155823592415E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2095,14 +2095,14 @@
         <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>42009</v>
+        <v>41607</v>
       </c>
       <c r="C18" s="1">
-        <v>40528</v>
+        <v>40661</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>3.5254350258277986E-2</v>
+        <v>2.2736558752133054E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2110,14 +2110,14 @@
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>45020</v>
+        <v>44441</v>
       </c>
       <c r="C19" s="1">
-        <v>42859</v>
+        <v>44243</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>4.8000888494002664E-2</v>
+        <v>4.4553452892599175E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2125,14 +2125,14 @@
         <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>43441</v>
+        <v>43372</v>
       </c>
       <c r="C20" s="1">
-        <v>41539</v>
+        <v>43664</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>4.3783522478764304E-2</v>
+        <v>-6.7324541178640594E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2140,14 +2140,14 @@
         <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>44554</v>
+        <v>44275</v>
       </c>
       <c r="C21" s="1">
-        <v>41974</v>
+        <v>43837</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>5.790725860753243E-2</v>
+        <v>9.892715979672501E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2155,14 +2155,14 @@
         <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>59822</v>
+        <v>60105</v>
       </c>
       <c r="C22" s="1">
-        <v>59412</v>
+        <v>59910</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>6.8536658754304435E-3</v>
+        <v>3.2443224357374596E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2170,14 +2170,14 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>62081</v>
+        <v>62231</v>
       </c>
       <c r="C23" s="1">
-        <v>62008</v>
+        <v>62514</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>1.175883120439426E-3</v>
+        <v>-4.5475727531294691E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2185,14 +2185,14 @@
         <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>59802</v>
+        <v>59807</v>
       </c>
       <c r="C24" s="1">
-        <v>59299</v>
+        <v>59708</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>8.411089930102672E-3</v>
+        <v>1.6553246275519589E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2200,14 +2200,14 @@
         <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>60479</v>
+        <v>60379</v>
       </c>
       <c r="C25" s="1">
-        <v>59815</v>
+        <v>60319</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>1.0979017510210156E-2</v>
+        <v>9.9372298315639554E-4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2215,14 +2215,14 @@
         <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>61091</v>
+        <v>60700</v>
       </c>
       <c r="C26" s="1">
-        <v>60043</v>
+        <v>61043</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>1.7154736376880392E-2</v>
+        <v>-5.6507413509060958E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2230,14 +2230,14 @@
         <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>58959</v>
+        <v>59328</v>
       </c>
       <c r="C27" s="1">
-        <v>58338</v>
+        <v>58889</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>1.053274309265761E-2</v>
+        <v>7.3995415318230855E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2245,14 +2245,14 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>61538</v>
+        <v>60852</v>
       </c>
       <c r="C28" s="1">
-        <v>60718</v>
+        <v>60911</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>1.3325099938249537E-2</v>
+        <v>-9.6956550318806286E-4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2260,14 +2260,14 @@
         <v>29</v>
       </c>
       <c r="B29" s="1">
-        <v>61520</v>
+        <v>60409</v>
       </c>
       <c r="C29" s="1">
-        <v>60478</v>
+        <v>61017</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>1.6937581274382316E-2</v>
+        <v>-1.0064725454816336E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2275,14 +2275,14 @@
         <v>30</v>
       </c>
       <c r="B30" s="1">
-        <v>59453</v>
+        <v>59073</v>
       </c>
       <c r="C30" s="1">
-        <v>58802</v>
+        <v>59146</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>1.0949825912905994E-2</v>
+        <v>-1.2357591454640869E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2290,14 +2290,14 @@
         <v>31</v>
       </c>
       <c r="B31" s="1">
-        <v>59965</v>
+        <v>59972</v>
       </c>
       <c r="C31" s="1">
-        <v>59605</v>
+        <v>60164</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>6.003502042858334E-3</v>
+        <v>-3.2014940305475888E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -4467,9 +4467,12 @@
       <c r="B212" s="1">
         <v>56693</v>
       </c>
+      <c r="C212" s="1">
+        <v>54442</v>
+      </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3.970507822835271E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4479,9 +4482,12 @@
       <c r="B213" s="1">
         <v>58318</v>
       </c>
+      <c r="C213" s="1">
+        <v>55460</v>
+      </c>
       <c r="D213" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.9007167598340132E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4491,9 +4497,12 @@
       <c r="B214" s="1">
         <v>56553</v>
       </c>
+      <c r="C214" s="1">
+        <v>53504</v>
+      </c>
       <c r="D214" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5.3914027549378456E-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2372264E-337E-436A-ACEF-ABE529250DBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B8E3ED-BEF0-405B-BB78-4998CE22E101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="277">
   <si>
     <t>Problem</t>
   </si>
@@ -862,6 +862,9 @@
   <si>
     <t>avg</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Starting the run!</t>
   </si>
 </sst>
 </file>
@@ -1824,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1839,6 +1842,9 @@
       <c r="B1" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D1" s="2" t="s">
         <v>274</v>
       </c>
@@ -1854,15 +1860,15 @@
         <v>24038</v>
       </c>
       <c r="C2" s="1">
-        <v>23326</v>
+        <v>24373</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>2.961976869955903E-2</v>
+        <v>-1.3936267576337466E-2</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>7.6996391482580442E-3</v>
+        <v>-9.6011628899455824E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,11 +1879,11 @@
         <v>24620</v>
       </c>
       <c r="C3" s="1">
-        <v>24114</v>
+        <v>24645</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>2.0552396425670187E-2</v>
+        <v>-1.0154346060113728E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1888,11 +1894,11 @@
         <v>24347</v>
       </c>
       <c r="C4" s="1">
-        <v>23959</v>
+        <v>24514</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>1.5936254980079681E-2</v>
+        <v>-6.8591612929724405E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1903,11 +1909,11 @@
         <v>22913</v>
       </c>
       <c r="C5" s="1">
-        <v>22709</v>
+        <v>23824</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>8.9032427006502865E-3</v>
+        <v>-3.9759088726923582E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,11 +1924,11 @@
         <v>24664</v>
       </c>
       <c r="C6" s="1">
-        <v>24219</v>
+        <v>24595</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="0"/>
-        <v>1.8042491080116768E-2</v>
+        <v>2.7975997405124877E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1933,11 +1939,11 @@
         <v>24906</v>
       </c>
       <c r="C7" s="1">
-        <v>25258</v>
+        <v>25260</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>-1.413314060868867E-2</v>
+        <v>-1.421344254396531E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1948,11 +1954,11 @@
         <v>25313</v>
       </c>
       <c r="C8" s="1">
-        <v>25071</v>
+        <v>25796</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
-        <v>9.5603049816299929E-3</v>
+        <v>-1.9081104570773912E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1963,11 +1969,11 @@
         <v>23366</v>
       </c>
       <c r="C9" s="1">
-        <v>23337</v>
+        <v>23813</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>1.2411195754515108E-3</v>
+        <v>-1.9130360352649148E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1978,11 +1984,11 @@
         <v>24756</v>
       </c>
       <c r="C10" s="1">
-        <v>24365</v>
+        <v>25096</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="0"/>
-        <v>1.5794150912910001E-2</v>
+        <v>-1.3734044272095654E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1993,11 +1999,11 @@
         <v>24096</v>
       </c>
       <c r="C11" s="1">
-        <v>24220</v>
+        <v>24744</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>-5.1460823373173968E-3</v>
+        <v>-2.6892430278884463E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2008,11 +2014,11 @@
         <v>42505</v>
       </c>
       <c r="C12" s="1">
-        <v>41351</v>
+        <v>42894</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>2.7149747088577814E-2</v>
+        <v>-9.1518644865309969E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,11 +2029,11 @@
         <v>41934</v>
       </c>
       <c r="C13" s="1">
-        <v>40983</v>
+        <v>41668</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>2.267849477750751E-2</v>
+        <v>6.3433013783564651E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2038,11 +2044,11 @@
         <v>41737</v>
       </c>
       <c r="C14" s="1">
-        <v>41417</v>
+        <v>42646</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>7.6670580060857274E-3</v>
+        <v>-2.1779236648537269E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2053,11 +2059,11 @@
         <v>44801</v>
       </c>
       <c r="C15" s="1">
-        <v>43992</v>
+        <v>45057</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>1.8057632642128525E-2</v>
+        <v>-5.7141581661123639E-3</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2068,11 +2074,11 @@
         <v>42001</v>
       </c>
       <c r="C16" s="1">
-        <v>40717</v>
+        <v>42149</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>3.0570700697602437E-2</v>
+        <v>-3.5237256255803433E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,11 +2089,11 @@
         <v>42946</v>
       </c>
       <c r="C17" s="1">
-        <v>42666</v>
+        <v>43171</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
-        <v>6.5198155823592415E-3</v>
+        <v>-5.2391375215386764E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2098,11 +2104,11 @@
         <v>41607</v>
       </c>
       <c r="C18" s="1">
-        <v>40661</v>
+        <v>41573</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="0"/>
-        <v>2.2736558752133054E-2</v>
+        <v>8.1717018770879901E-4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2113,11 +2119,11 @@
         <v>44441</v>
       </c>
       <c r="C19" s="1">
-        <v>44243</v>
+        <v>45028</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="0"/>
-        <v>4.4553452892599175E-3</v>
+        <v>-1.3208523660583695E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2128,11 +2134,11 @@
         <v>43372</v>
       </c>
       <c r="C20" s="1">
-        <v>43664</v>
+        <v>44426</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
-        <v>-6.7324541178640594E-3</v>
+        <v>-2.4301392603523011E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2143,11 +2149,11 @@
         <v>44275</v>
       </c>
       <c r="C21" s="1">
-        <v>43837</v>
+        <v>44258</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
-        <v>9.892715979672501E-3</v>
+        <v>3.8396386222473179E-4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2158,11 +2164,11 @@
         <v>60105</v>
       </c>
       <c r="C22" s="1">
-        <v>59910</v>
+        <v>60269</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
-        <v>3.2443224357374596E-3</v>
+        <v>-2.7285583562099659E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,11 +2179,11 @@
         <v>62231</v>
       </c>
       <c r="C23" s="1">
-        <v>62514</v>
+        <v>62640</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
-        <v>-4.5475727531294691E-3</v>
+        <v>-6.5722871237807526E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2188,11 +2194,11 @@
         <v>59807</v>
       </c>
       <c r="C24" s="1">
-        <v>59708</v>
+        <v>60089</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="0"/>
-        <v>1.6553246275519589E-3</v>
+        <v>-4.71516712090558E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2203,11 +2209,11 @@
         <v>60379</v>
       </c>
       <c r="C25" s="1">
-        <v>60319</v>
+        <v>60402</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="0"/>
-        <v>9.9372298315639554E-4</v>
+        <v>-3.8092714354328493E-4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2218,11 +2224,11 @@
         <v>60700</v>
       </c>
       <c r="C26" s="1">
-        <v>61043</v>
+        <v>61104</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>-5.6507413509060958E-3</v>
+        <v>-6.6556836902800657E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2233,11 +2239,11 @@
         <v>59328</v>
       </c>
       <c r="C27" s="1">
-        <v>58889</v>
+        <v>59292</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
-        <v>7.3995415318230855E-3</v>
+        <v>6.0679611650485432E-4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2248,11 +2254,11 @@
         <v>60852</v>
       </c>
       <c r="C28" s="1">
-        <v>60911</v>
+        <v>61559</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
-        <v>-9.6956550318806286E-4</v>
+        <v>-1.1618352724643398E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2263,11 +2269,11 @@
         <v>60409</v>
       </c>
       <c r="C29" s="1">
-        <v>61017</v>
+        <v>61495</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
-        <v>-1.0064725454816336E-2</v>
+        <v>-1.797745369067523E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2278,11 +2284,11 @@
         <v>59073</v>
       </c>
       <c r="C30" s="1">
-        <v>59146</v>
+        <v>59497</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
-        <v>-1.2357591454640869E-3</v>
+        <v>-7.1775599681749699E-3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,11 +2299,11 @@
         <v>59972</v>
       </c>
       <c r="C31" s="1">
-        <v>60164</v>
+        <v>60189</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="0"/>
-        <v>-3.2014940305475888E-3</v>
+        <v>-3.618355232441806E-3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -4468,11 +4474,11 @@
         <v>56693</v>
       </c>
       <c r="C212" s="1">
-        <v>54442</v>
+        <v>55199</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>3.970507822835271E-2</v>
+        <v>2.6352459739297621E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4483,11 +4489,11 @@
         <v>58318</v>
       </c>
       <c r="C213" s="1">
-        <v>55460</v>
+        <v>54857</v>
       </c>
       <c r="D213" s="2">
         <f t="shared" si="3"/>
-        <v>4.9007167598340132E-2</v>
+        <v>5.93470283617408E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4498,11 +4504,11 @@
         <v>56553</v>
       </c>
       <c r="C214" s="1">
-        <v>53504</v>
+        <v>53439</v>
       </c>
       <c r="D214" s="2">
         <f t="shared" si="3"/>
-        <v>5.3914027549378456E-2</v>
+        <v>5.5063391862500664E-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B8E3ED-BEF0-405B-BB78-4998CE22E101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9954EC-DC14-4CC4-A0B5-342037757B9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="1770" windowWidth="14070" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="best-feasible-slns" sheetId="1" r:id="rId1"/>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1860,15 +1860,15 @@
         <v>24038</v>
       </c>
       <c r="C2" s="1">
-        <v>24373</v>
+        <v>24281</v>
       </c>
       <c r="D2" s="2">
         <f>(B2-C2)/B2</f>
-        <v>-1.3936267576337466E-2</v>
+        <v>-1.010899409268658E-2</v>
       </c>
       <c r="E2" s="2">
         <f>AVERAGE(D2:D31)</f>
-        <v>-9.6011628899455824E-3</v>
+        <v>-8.8053169176028935E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1879,11 +1879,11 @@
         <v>24620</v>
       </c>
       <c r="C3" s="1">
-        <v>24645</v>
+        <v>24745</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D66" si="0">(B3-C3)/B3</f>
-        <v>-1.0154346060113728E-3</v>
+        <v>-5.077173030056864E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1894,11 +1894,11 @@
         <v>24347</v>
       </c>
       <c r="C4" s="1">
-        <v>24514</v>
+        <v>24379</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="0"/>
-        <v>-6.8591612929724405E-3</v>
+        <v>-1.3143303076354376E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1909,11 +1909,11 @@
         <v>22913</v>
       </c>
       <c r="C5" s="1">
-        <v>23824</v>
+        <v>23520</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>-3.9759088726923582E-2</v>
+        <v>-2.649151136909178E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1939,11 +1939,11 @@
         <v>24906</v>
       </c>
       <c r="C7" s="1">
-        <v>25260</v>
+        <v>25448</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>-1.421344254396531E-2</v>
+        <v>-2.1761824459969485E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1969,11 +1969,11 @@
         <v>23366</v>
       </c>
       <c r="C9" s="1">
-        <v>23813</v>
+        <v>23835</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>-1.9130360352649148E-2</v>
+        <v>-2.0071899340922707E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1999,11 +1999,11 @@
         <v>24096</v>
       </c>
       <c r="C11" s="1">
-        <v>24744</v>
+        <v>24679</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="0"/>
-        <v>-2.6892430278884463E-2</v>
+        <v>-2.419488711819389E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2014,11 +2014,11 @@
         <v>42505</v>
       </c>
       <c r="C12" s="1">
-        <v>42894</v>
+        <v>42787</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
-        <v>-9.1518644865309969E-3</v>
+        <v>-6.6345135866368666E-3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2029,11 +2029,11 @@
         <v>41934</v>
       </c>
       <c r="C13" s="1">
-        <v>41668</v>
+        <v>42260</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="0"/>
-        <v>6.3433013783564651E-3</v>
+        <v>-7.7741212381361186E-3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2044,11 +2044,11 @@
         <v>41737</v>
       </c>
       <c r="C14" s="1">
-        <v>42646</v>
+        <v>41342</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="0"/>
-        <v>-2.1779236648537269E-2</v>
+        <v>9.4640247262620693E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2059,11 +2059,11 @@
         <v>44801</v>
       </c>
       <c r="C15" s="1">
-        <v>45057</v>
+        <v>45309</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="0"/>
-        <v>-5.7141581661123639E-3</v>
+        <v>-1.1339032610879221E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2074,11 +2074,11 @@
         <v>42001</v>
       </c>
       <c r="C16" s="1">
-        <v>42149</v>
+        <v>42272</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
-        <v>-3.5237256255803433E-3</v>
+        <v>-6.4522273279207639E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4474,11 +4474,11 @@
         <v>56693</v>
       </c>
       <c r="C212" s="1">
-        <v>55199</v>
+        <v>55391</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>2.6352459739297621E-2</v>
+        <v>2.2965798246697124E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4489,11 +4489,11 @@
         <v>58318</v>
       </c>
       <c r="C213" s="1">
-        <v>54857</v>
+        <v>56741</v>
       </c>
       <c r="D213" s="2">
         <f t="shared" si="3"/>
-        <v>5.93470283617408E-2</v>
+        <v>2.7041393737782502E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4504,11 +4504,11 @@
         <v>56553</v>
       </c>
       <c r="C214" s="1">
-        <v>53439</v>
+        <v>54216</v>
       </c>
       <c r="D214" s="2">
         <f t="shared" si="3"/>
-        <v>5.5063391862500664E-2</v>
+        <v>4.1324067688716777E-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9954EC-DC14-4CC4-A0B5-342037757B9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659109C1-FB60-4BCB-BDFE-DDBF536061DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1770" windowWidth="14070" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="best-feasible-slns" sheetId="1" r:id="rId1"/>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212:C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4473,12 +4473,12 @@
       <c r="B212" s="1">
         <v>56693</v>
       </c>
-      <c r="C212" s="1">
-        <v>55391</v>
+      <c r="C212">
+        <v>55416</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>2.2965798246697124E-2</v>
+        <v>2.2524826698181434E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4488,12 +4488,12 @@
       <c r="B213" s="1">
         <v>58318</v>
       </c>
-      <c r="C213" s="1">
-        <v>56741</v>
+      <c r="C213">
+        <v>57021</v>
       </c>
       <c r="D213" s="2">
         <f t="shared" si="3"/>
-        <v>2.7041393737782502E-2</v>
+        <v>2.2240131691758976E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4503,12 +4503,12 @@
       <c r="B214" s="1">
         <v>56553</v>
       </c>
-      <c r="C214" s="1">
-        <v>54216</v>
+      <c r="C214">
+        <v>55387</v>
       </c>
       <c r="D214" s="2">
         <f t="shared" si="3"/>
-        <v>4.1324067688716777E-2</v>
+        <v>2.061782752462292E-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4518,9 +4518,12 @@
       <c r="B215" s="1">
         <v>56863</v>
       </c>
+      <c r="C215">
+        <v>55451</v>
+      </c>
       <c r="D215" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.4831612823804583E-2</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4530,9 +4533,12 @@
       <c r="B216" s="1">
         <v>56629</v>
       </c>
+      <c r="C216">
+        <v>55163</v>
+      </c>
       <c r="D216" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.588779600558018E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4542,9 +4548,12 @@
       <c r="B217" s="1">
         <v>57119</v>
       </c>
+      <c r="C217">
+        <v>55969</v>
+      </c>
       <c r="D217" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.0133405696878447E-2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4554,9 +4563,12 @@
       <c r="B218" s="1">
         <v>56292</v>
       </c>
+      <c r="C218">
+        <v>55105</v>
+      </c>
       <c r="D218" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.1086477652241881E-2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4566,9 +4578,12 @@
       <c r="B219" s="1">
         <v>56403</v>
       </c>
+      <c r="C219">
+        <v>55114</v>
+      </c>
       <c r="D219" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.2853394322997003E-2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4578,9 +4593,12 @@
       <c r="B220" s="1">
         <v>57442</v>
       </c>
+      <c r="C220">
+        <v>56019</v>
+      </c>
       <c r="D220" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.4772814317050241E-2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4590,9 +4608,12 @@
       <c r="B221" s="1">
         <v>56447</v>
       </c>
+      <c r="C221">
+        <v>54503</v>
+      </c>
       <c r="D221" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3.4439385618367672E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4602,9 +4623,12 @@
       <c r="B222" s="1">
         <v>107689</v>
       </c>
+      <c r="C222">
+        <v>106952</v>
+      </c>
       <c r="D222" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6.8437816304357923E-3</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4614,9 +4638,12 @@
       <c r="B223" s="1">
         <v>108338</v>
       </c>
+      <c r="C223">
+        <v>107695</v>
+      </c>
       <c r="D223" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5.935128948291458E-3</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4626,9 +4653,12 @@
       <c r="B224" s="1">
         <v>106385</v>
       </c>
+      <c r="C224">
+        <v>104850</v>
+      </c>
       <c r="D224" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.442872585420877E-2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4638,9 +4668,12 @@
       <c r="B225" s="1">
         <v>106796</v>
       </c>
+      <c r="C225">
+        <v>105469</v>
+      </c>
       <c r="D225" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.2425559009700738E-2</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4650,9 +4683,12 @@
       <c r="B226" s="1">
         <v>107396</v>
       </c>
+      <c r="C226">
+        <v>106639</v>
+      </c>
       <c r="D226" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7.0486796528734779E-3</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4662,9 +4698,12 @@
       <c r="B227" s="1">
         <v>107246</v>
       </c>
+      <c r="C227">
+        <v>105764</v>
+      </c>
       <c r="D227" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.3818697200828003E-2</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4674,9 +4713,12 @@
       <c r="B228" s="1">
         <v>106308</v>
       </c>
+      <c r="C228">
+        <v>105387</v>
+      </c>
       <c r="D228" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.6635060390563273E-3</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4686,9 +4728,12 @@
       <c r="B229" s="1">
         <v>103993</v>
       </c>
+      <c r="C229">
+        <v>102951</v>
+      </c>
       <c r="D229" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.0019905185925975E-2</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4698,9 +4743,12 @@
       <c r="B230" s="1">
         <v>106835</v>
       </c>
+      <c r="C230">
+        <v>105957</v>
+      </c>
       <c r="D230" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.2182805260448358E-3</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4710,9 +4758,12 @@
       <c r="B231" s="1">
         <v>105751</v>
       </c>
+      <c r="C231">
+        <v>104838</v>
+      </c>
       <c r="D231" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.6334880994033154E-3</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4722,9 +4773,12 @@
       <c r="B232" s="1">
         <v>150083</v>
       </c>
+      <c r="C232">
+        <v>149612</v>
+      </c>
       <c r="D232" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3.138263494199876E-3</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4734,9 +4788,12 @@
       <c r="B233" s="1">
         <v>149907</v>
       </c>
+      <c r="C233">
+        <v>149622</v>
+      </c>
       <c r="D233" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.9011787308131042E-3</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4746,9 +4803,12 @@
       <c r="B234" s="1">
         <v>152993</v>
       </c>
+      <c r="C234">
+        <v>152304</v>
+      </c>
       <c r="D234" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.5034740151510197E-3</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4758,9 +4818,12 @@
       <c r="B235" s="1">
         <v>153169</v>
       </c>
+      <c r="C235">
+        <v>152723</v>
+      </c>
       <c r="D235" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.9118163597072516E-3</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4770,9 +4833,12 @@
       <c r="B236" s="1">
         <v>150287</v>
       </c>
+      <c r="C236">
+        <v>149638</v>
+      </c>
       <c r="D236" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.3184041201168432E-3</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4782,9 +4848,12 @@
       <c r="B237" s="1">
         <v>148544</v>
       </c>
+      <c r="C237">
+        <v>147863</v>
+      </c>
       <c r="D237" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.5845002154243858E-3</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4794,9 +4863,12 @@
       <c r="B238" s="1">
         <v>147471</v>
       </c>
+      <c r="C238">
+        <v>146429</v>
+      </c>
       <c r="D238" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>7.0657959870076151E-3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4806,9 +4878,12 @@
       <c r="B239" s="1">
         <v>152841</v>
       </c>
+      <c r="C239">
+        <v>152189</v>
+      </c>
       <c r="D239" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.2658710686268734E-3</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4818,9 +4893,12 @@
       <c r="B240" s="1">
         <v>149568</v>
       </c>
+      <c r="C240">
+        <v>149032</v>
+      </c>
       <c r="D240" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3.5836542575952077E-3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4830,9 +4908,12 @@
       <c r="B241" s="1">
         <v>149572</v>
       </c>
+      <c r="C241">
+        <v>148348</v>
+      </c>
       <c r="D241" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.1833498248335256E-3</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659109C1-FB60-4BCB-BDFE-DDBF536061DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512801C7-43E8-4F45-9A1D-282C5E190DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1828,7 +1828,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212:C241"/>
+      <selection activeCell="I220" sqref="I220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4474,11 +4474,11 @@
         <v>56693</v>
       </c>
       <c r="C212">
-        <v>55416</v>
+        <v>55302</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>2.2524826698181434E-2</v>
+        <v>2.4535656959412979E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512801C7-43E8-4F45-9A1D-282C5E190DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6DEA60-E299-41F6-A437-18B639AF0E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="I220" sqref="I220"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4474,11 +4474,11 @@
         <v>56693</v>
       </c>
       <c r="C212">
-        <v>55302</v>
+        <v>55979</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>2.4535656959412979E-2</v>
+        <v>1.2594147425608099E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4489,11 +4489,11 @@
         <v>58318</v>
       </c>
       <c r="C213">
-        <v>57021</v>
+        <v>57468</v>
       </c>
       <c r="D213" s="2">
         <f t="shared" si="3"/>
-        <v>2.2240131691758976E-2</v>
+        <v>1.4575259782571419E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4504,11 +4504,11 @@
         <v>56553</v>
       </c>
       <c r="C214">
-        <v>55387</v>
+        <v>54878</v>
       </c>
       <c r="D214" s="2">
         <f t="shared" si="3"/>
-        <v>2.061782752462292E-2</v>
+        <v>2.9618234222764488E-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4519,11 +4519,11 @@
         <v>56863</v>
       </c>
       <c r="C215">
-        <v>55451</v>
+        <v>56076</v>
       </c>
       <c r="D215" s="2">
         <f t="shared" si="3"/>
-        <v>2.4831612823804583E-2</v>
+        <v>1.3840282784939239E-2</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4534,11 +4534,11 @@
         <v>56629</v>
       </c>
       <c r="C216">
-        <v>55163</v>
+        <v>55567</v>
       </c>
       <c r="D216" s="2">
         <f t="shared" si="3"/>
-        <v>2.588779600558018E-2</v>
+        <v>1.8753642126825478E-2</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4549,11 +4549,11 @@
         <v>57119</v>
       </c>
       <c r="C217">
-        <v>55969</v>
+        <v>56214</v>
       </c>
       <c r="D217" s="2">
         <f t="shared" si="3"/>
-        <v>2.0133405696878447E-2</v>
+        <v>1.5844114917978255E-2</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4564,11 +4564,11 @@
         <v>56292</v>
       </c>
       <c r="C218">
-        <v>55105</v>
+        <v>54791</v>
       </c>
       <c r="D218" s="2">
         <f t="shared" si="3"/>
-        <v>2.1086477652241881E-2</v>
+        <v>2.6664534925033751E-2</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4579,11 +4579,11 @@
         <v>56403</v>
       </c>
       <c r="C219">
-        <v>55114</v>
+        <v>54987</v>
       </c>
       <c r="D219" s="2">
         <f t="shared" si="3"/>
-        <v>2.2853394322997003E-2</v>
+        <v>2.510504760385086E-2</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4594,11 +4594,11 @@
         <v>57442</v>
       </c>
       <c r="C220">
-        <v>56019</v>
+        <v>55285</v>
       </c>
       <c r="D220" s="2">
         <f t="shared" si="3"/>
-        <v>2.4772814317050241E-2</v>
+        <v>3.7550920928937012E-2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4609,11 +4609,11 @@
         <v>56447</v>
       </c>
       <c r="C221">
-        <v>54503</v>
+        <v>55116</v>
       </c>
       <c r="D221" s="2">
         <f t="shared" si="3"/>
-        <v>3.4439385618367672E-2</v>
+        <v>2.3579641079242476E-2</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4624,11 +4624,11 @@
         <v>107689</v>
       </c>
       <c r="C222">
-        <v>106952</v>
+        <v>106953</v>
       </c>
       <c r="D222" s="2">
         <f t="shared" si="3"/>
-        <v>6.8437816304357923E-3</v>
+        <v>6.8344956309372359E-3</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4639,11 +4639,11 @@
         <v>108338</v>
       </c>
       <c r="C223">
-        <v>107695</v>
+        <v>107224</v>
       </c>
       <c r="D223" s="2">
         <f t="shared" si="3"/>
-        <v>5.935128948291458E-3</v>
+        <v>1.0282633978843988E-2</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4654,11 +4654,11 @@
         <v>106385</v>
       </c>
       <c r="C224">
-        <v>104850</v>
+        <v>105175</v>
       </c>
       <c r="D224" s="2">
         <f t="shared" si="3"/>
-        <v>1.442872585420877E-2</v>
+        <v>1.1373783898105935E-2</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4669,11 +4669,11 @@
         <v>106796</v>
       </c>
       <c r="C225">
-        <v>105469</v>
+        <v>106131</v>
       </c>
       <c r="D225" s="2">
         <f t="shared" si="3"/>
-        <v>1.2425559009700738E-2</v>
+        <v>6.226824974718154E-3</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4684,11 +4684,11 @@
         <v>107396</v>
       </c>
       <c r="C226">
-        <v>106639</v>
+        <v>106369</v>
       </c>
       <c r="D226" s="2">
         <f t="shared" si="3"/>
-        <v>7.0486796528734779E-3</v>
+        <v>9.5627397668442034E-3</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4699,11 +4699,11 @@
         <v>107246</v>
       </c>
       <c r="C227">
-        <v>105764</v>
+        <v>106226</v>
       </c>
       <c r="D227" s="2">
         <f t="shared" si="3"/>
-        <v>1.3818697200828003E-2</v>
+        <v>9.5108442272905276E-3</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4714,11 +4714,11 @@
         <v>106308</v>
       </c>
       <c r="C228">
-        <v>105387</v>
+        <v>105504</v>
       </c>
       <c r="D228" s="2">
         <f t="shared" si="3"/>
-        <v>8.6635060390563273E-3</v>
+        <v>7.562930353313015E-3</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4729,11 +4729,11 @@
         <v>103993</v>
       </c>
       <c r="C229">
-        <v>102951</v>
+        <v>103098</v>
       </c>
       <c r="D229" s="2">
         <f t="shared" si="3"/>
-        <v>1.0019905185925975E-2</v>
+        <v>8.6063485042262456E-3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4744,11 +4744,11 @@
         <v>106835</v>
       </c>
       <c r="C230">
-        <v>105957</v>
+        <v>106040</v>
       </c>
       <c r="D230" s="2">
         <f t="shared" si="3"/>
-        <v>8.2182805260448358E-3</v>
+        <v>7.441381569710301E-3</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4759,11 +4759,11 @@
         <v>105751</v>
       </c>
       <c r="C231">
-        <v>104838</v>
+        <v>104829</v>
       </c>
       <c r="D231" s="2">
         <f t="shared" si="3"/>
-        <v>8.6334880994033154E-3</v>
+        <v>8.7185936776011577E-3</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4774,11 +4774,11 @@
         <v>150083</v>
       </c>
       <c r="C232">
-        <v>149612</v>
+        <v>149534</v>
       </c>
       <c r="D232" s="2">
         <f t="shared" si="3"/>
-        <v>3.138263494199876E-3</v>
+        <v>3.6579759199909384E-3</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4789,11 +4789,11 @@
         <v>149907</v>
       </c>
       <c r="C233">
-        <v>149622</v>
+        <v>149610</v>
       </c>
       <c r="D233" s="2">
         <f t="shared" si="3"/>
-        <v>1.9011787308131042E-3</v>
+        <v>1.9812283615841821E-3</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4804,11 +4804,11 @@
         <v>152993</v>
       </c>
       <c r="C234">
-        <v>152304</v>
+        <v>152338</v>
       </c>
       <c r="D234" s="2">
         <f t="shared" si="3"/>
-        <v>4.5034740151510197E-3</v>
+        <v>4.2812416254338435E-3</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4819,11 +4819,11 @@
         <v>153169</v>
       </c>
       <c r="C235">
-        <v>152723</v>
+        <v>152477</v>
       </c>
       <c r="D235" s="2">
         <f t="shared" si="3"/>
-        <v>2.9118163597072516E-3</v>
+        <v>4.517885472909009E-3</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4834,11 +4834,11 @@
         <v>150287</v>
       </c>
       <c r="C236">
-        <v>149638</v>
+        <v>149768</v>
       </c>
       <c r="D236" s="2">
         <f t="shared" si="3"/>
-        <v>4.3184041201168432E-3</v>
+        <v>3.4533925089994476E-3</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4849,11 +4849,11 @@
         <v>148544</v>
       </c>
       <c r="C237">
-        <v>147863</v>
+        <v>147611</v>
       </c>
       <c r="D237" s="2">
         <f t="shared" si="3"/>
-        <v>4.5845002154243858E-3</v>
+        <v>6.280967255493322E-3</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4864,11 +4864,11 @@
         <v>147471</v>
       </c>
       <c r="C238">
-        <v>146429</v>
+        <v>146680</v>
       </c>
       <c r="D238" s="2">
         <f t="shared" si="3"/>
-        <v>7.0657959870076151E-3</v>
+        <v>5.3637664354347636E-3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4879,11 +4879,11 @@
         <v>152841</v>
       </c>
       <c r="C239">
-        <v>152189</v>
+        <v>151631</v>
       </c>
       <c r="D239" s="2">
         <f t="shared" si="3"/>
-        <v>4.2658710686268734E-3</v>
+        <v>7.9167239157032464E-3</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4894,11 +4894,11 @@
         <v>149568</v>
       </c>
       <c r="C240">
-        <v>149032</v>
+        <v>148550</v>
       </c>
       <c r="D240" s="2">
         <f t="shared" si="3"/>
-        <v>3.5836542575952077E-3</v>
+        <v>6.8062687205819429E-3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4909,11 +4909,11 @@
         <v>149572</v>
       </c>
       <c r="C241">
-        <v>148348</v>
+        <v>148560</v>
       </c>
       <c r="D241" s="2">
         <f t="shared" si="3"/>
-        <v>8.1833498248335256E-3</v>
+        <v>6.7659722407937316E-3</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6DEA60-E299-41F6-A437-18B639AF0E48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4BEB0A-5E60-4092-8240-9737CB9CBB1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1828,7 +1828,7 @@
   <dimension ref="A1:E546"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212"/>
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4474,11 +4474,11 @@
         <v>56693</v>
       </c>
       <c r="C212">
-        <v>55979</v>
+        <v>55480</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>1.2594147425608099E-2</v>
+        <v>2.1395939533981268E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4489,11 +4489,11 @@
         <v>58318</v>
       </c>
       <c r="C213">
-        <v>57468</v>
+        <v>57341</v>
       </c>
       <c r="D213" s="2">
         <f t="shared" si="3"/>
-        <v>1.4575259782571419E-2</v>
+        <v>1.6752975067732091E-2</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4BEB0A-5E60-4092-8240-9737CB9CBB1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19B0F7A-7409-44F6-96E0-1DFF744004C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="K215" sqref="K215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4474,11 +4474,11 @@
         <v>56693</v>
       </c>
       <c r="C212">
-        <v>55480</v>
+        <v>55967</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>2.1395939533981268E-2</v>
+        <v>1.280581376889563E-2</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19B0F7A-7409-44F6-96E0-1DFF744004C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A0DAD-8CFC-468C-B746-9A0ECD23AB69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="K215" sqref="K215"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="62" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3753,9 +3753,12 @@
       <c r="B152" s="1">
         <v>117726</v>
       </c>
+      <c r="C152" s="1">
+        <v>116981</v>
+      </c>
       <c r="D152" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6.3282537417392931E-3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3765,9 +3768,12 @@
       <c r="B153" s="1">
         <v>119139</v>
       </c>
+      <c r="C153" s="1">
+        <v>118857</v>
+      </c>
       <c r="D153" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.3669831037695464E-3</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4474,11 +4480,11 @@
         <v>56693</v>
       </c>
       <c r="C212">
-        <v>55967</v>
+        <v>56374</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>1.280581376889563E-2</v>
+        <v>5.6267969590602018E-3</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4489,11 +4495,11 @@
         <v>58318</v>
       </c>
       <c r="C213">
-        <v>57341</v>
+        <v>57962</v>
       </c>
       <c r="D213" s="2">
         <f t="shared" si="3"/>
-        <v>1.6752975067732091E-2</v>
+        <v>6.1044617442299115E-3</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4504,11 +4510,11 @@
         <v>56553</v>
       </c>
       <c r="C214">
-        <v>54878</v>
+        <v>56291</v>
       </c>
       <c r="D214" s="2">
         <f t="shared" si="3"/>
-        <v>2.9618234222764488E-2</v>
+        <v>4.6328223082771911E-3</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4519,11 +4525,11 @@
         <v>56863</v>
       </c>
       <c r="C215">
-        <v>56076</v>
+        <v>56563</v>
       </c>
       <c r="D215" s="2">
         <f t="shared" si="3"/>
-        <v>1.3840282784939239E-2</v>
+        <v>5.2758384186553644E-3</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4534,11 +4540,11 @@
         <v>56629</v>
       </c>
       <c r="C216">
-        <v>55567</v>
+        <v>56279</v>
       </c>
       <c r="D216" s="2">
         <f t="shared" si="3"/>
-        <v>1.8753642126825478E-2</v>
+        <v>6.1805788553567957E-3</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4549,11 +4555,11 @@
         <v>57119</v>
       </c>
       <c r="C217">
-        <v>56214</v>
+        <v>56814</v>
       </c>
       <c r="D217" s="2">
         <f t="shared" si="3"/>
-        <v>1.5844114917978255E-2</v>
+        <v>5.3397293369981964E-3</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4564,11 +4570,11 @@
         <v>56292</v>
       </c>
       <c r="C218">
-        <v>54791</v>
+        <v>55769</v>
       </c>
       <c r="D218" s="2">
         <f t="shared" si="3"/>
-        <v>2.6664534925033751E-2</v>
+        <v>9.290840616783912E-3</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4579,11 +4585,11 @@
         <v>56403</v>
       </c>
       <c r="C219">
-        <v>54987</v>
+        <v>56079</v>
       </c>
       <c r="D219" s="2">
         <f t="shared" si="3"/>
-        <v>2.510504760385086E-2</v>
+        <v>5.7443752991862135E-3</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4594,11 +4600,11 @@
         <v>57442</v>
       </c>
       <c r="C220">
-        <v>55285</v>
+        <v>56873</v>
       </c>
       <c r="D220" s="2">
         <f t="shared" si="3"/>
-        <v>3.7550920928937012E-2</v>
+        <v>9.9056439539013264E-3</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4609,11 +4615,11 @@
         <v>56447</v>
       </c>
       <c r="C221">
-        <v>55116</v>
+        <v>55951</v>
       </c>
       <c r="D221" s="2">
         <f t="shared" si="3"/>
-        <v>2.3579641079242476E-2</v>
+        <v>8.7870037380197354E-3</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4624,11 +4630,11 @@
         <v>107689</v>
       </c>
       <c r="C222">
-        <v>106953</v>
+        <v>107247</v>
       </c>
       <c r="D222" s="2">
         <f t="shared" si="3"/>
-        <v>6.8344956309372359E-3</v>
+        <v>4.1044117783617636E-3</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4639,11 +4645,11 @@
         <v>108338</v>
       </c>
       <c r="C223">
-        <v>107224</v>
+        <v>107679</v>
       </c>
       <c r="D223" s="2">
         <f t="shared" si="3"/>
-        <v>1.0282633978843988E-2</v>
+        <v>6.082814894127638E-3</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4654,11 +4660,11 @@
         <v>106385</v>
       </c>
       <c r="C224">
-        <v>105175</v>
+        <v>105989</v>
       </c>
       <c r="D224" s="2">
         <f t="shared" si="3"/>
-        <v>1.1373783898105935E-2</v>
+        <v>3.7223292757437611E-3</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4669,11 +4675,11 @@
         <v>106796</v>
       </c>
       <c r="C225">
-        <v>106131</v>
+        <v>106215</v>
       </c>
       <c r="D225" s="2">
         <f t="shared" si="3"/>
-        <v>6.226824974718154E-3</v>
+        <v>5.4402786621221772E-3</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4684,11 +4690,11 @@
         <v>107396</v>
       </c>
       <c r="C226">
-        <v>106369</v>
+        <v>106880</v>
       </c>
       <c r="D226" s="2">
         <f t="shared" si="3"/>
-        <v>9.5627397668442034E-3</v>
+        <v>4.804648217810719E-3</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4699,11 +4705,11 @@
         <v>107246</v>
       </c>
       <c r="C227">
-        <v>106226</v>
+        <v>106726</v>
       </c>
       <c r="D227" s="2">
         <f t="shared" si="3"/>
-        <v>9.5108442272905276E-3</v>
+        <v>4.8486656845010533E-3</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4714,11 +4720,11 @@
         <v>106308</v>
       </c>
       <c r="C228">
-        <v>105504</v>
+        <v>105880</v>
       </c>
       <c r="D228" s="2">
         <f t="shared" si="3"/>
-        <v>7.562930353313015E-3</v>
+        <v>4.0260375512661322E-3</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4729,11 +4735,11 @@
         <v>103993</v>
       </c>
       <c r="C229">
-        <v>103098</v>
+        <v>103667</v>
       </c>
       <c r="D229" s="2">
         <f t="shared" si="3"/>
-        <v>8.6063485042262456E-3</v>
+        <v>3.134826382544979E-3</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4744,11 +4750,11 @@
         <v>106835</v>
       </c>
       <c r="C230">
-        <v>106040</v>
+        <v>106280</v>
       </c>
       <c r="D230" s="2">
         <f t="shared" si="3"/>
-        <v>7.441381569710301E-3</v>
+        <v>5.1949267562128518E-3</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4759,11 +4765,11 @@
         <v>105751</v>
       </c>
       <c r="C231">
-        <v>104829</v>
+        <v>105409</v>
       </c>
       <c r="D231" s="2">
         <f t="shared" si="3"/>
-        <v>8.7185936776011577E-3</v>
+        <v>3.2340119715179999E-3</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4774,11 +4780,11 @@
         <v>150083</v>
       </c>
       <c r="C232">
-        <v>149534</v>
+        <v>149885</v>
       </c>
       <c r="D232" s="2">
         <f t="shared" si="3"/>
-        <v>3.6579759199909384E-3</v>
+        <v>1.3192700039311581E-3</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4789,11 +4795,11 @@
         <v>149907</v>
       </c>
       <c r="C233">
-        <v>149610</v>
+        <v>149616</v>
       </c>
       <c r="D233" s="2">
         <f t="shared" si="3"/>
-        <v>1.9812283615841821E-3</v>
+        <v>1.9412035461986432E-3</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4804,11 +4810,11 @@
         <v>152993</v>
       </c>
       <c r="C234">
-        <v>152338</v>
+        <v>152610</v>
       </c>
       <c r="D234" s="2">
         <f t="shared" si="3"/>
-        <v>4.2812416254338435E-3</v>
+        <v>2.5033825076964306E-3</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4819,11 +4825,11 @@
         <v>153169</v>
       </c>
       <c r="C235">
-        <v>152477</v>
+        <v>152826</v>
       </c>
       <c r="D235" s="2">
         <f t="shared" si="3"/>
-        <v>4.517885472909009E-3</v>
+        <v>2.239356527756922E-3</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4834,11 +4840,11 @@
         <v>150287</v>
       </c>
       <c r="C236">
-        <v>149768</v>
+        <v>150115</v>
       </c>
       <c r="D236" s="2">
         <f t="shared" si="3"/>
-        <v>3.4533925089994476E-3</v>
+        <v>1.1444769008630154E-3</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4849,11 +4855,11 @@
         <v>148544</v>
       </c>
       <c r="C237">
-        <v>147611</v>
+        <v>148038</v>
       </c>
       <c r="D237" s="2">
         <f t="shared" si="3"/>
-        <v>6.280967255493322E-3</v>
+        <v>3.4063981042654029E-3</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4864,11 +4870,11 @@
         <v>147471</v>
       </c>
       <c r="C238">
-        <v>146680</v>
+        <v>147215</v>
       </c>
       <c r="D238" s="2">
         <f t="shared" si="3"/>
-        <v>5.3637664354347636E-3</v>
+        <v>1.7359345227197212E-3</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4879,11 +4885,11 @@
         <v>152841</v>
       </c>
       <c r="C239">
-        <v>151631</v>
+        <v>152591</v>
       </c>
       <c r="D239" s="2">
         <f t="shared" si="3"/>
-        <v>7.9167239157032464E-3</v>
+        <v>1.6356867594428197E-3</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4894,11 +4900,11 @@
         <v>149568</v>
       </c>
       <c r="C240">
-        <v>148550</v>
+        <v>149351</v>
       </c>
       <c r="D240" s="2">
         <f t="shared" si="3"/>
-        <v>6.8062687205819429E-3</v>
+        <v>1.4508451005562687E-3</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4909,11 +4915,11 @@
         <v>149572</v>
       </c>
       <c r="C241">
-        <v>148560</v>
+        <v>149294</v>
       </c>
       <c r="D241" s="2">
         <f t="shared" si="3"/>
-        <v>6.7659722407937316E-3</v>
+        <v>1.8586366432219933E-3</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">

--- a/gap calculate.xlsx
+++ b/gap calculate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNNC\Y3_spring\AIM\CW\cw\code\git\AIM_CW_PSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1A0DAD-8CFC-468C-B746-9A0ECD23AB69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FB8EC1-FE3F-454F-A780-DAEA393B8C0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="62" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3754,11 +3754,11 @@
         <v>117726</v>
       </c>
       <c r="C152" s="1">
-        <v>116981</v>
+        <v>117075</v>
       </c>
       <c r="D152" s="2">
         <f t="shared" si="2"/>
-        <v>6.3282537417392931E-3</v>
+        <v>5.5297895112379593E-3</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3769,11 +3769,11 @@
         <v>119139</v>
       </c>
       <c r="C153" s="1">
-        <v>118857</v>
+        <v>118521</v>
       </c>
       <c r="D153" s="2">
         <f t="shared" si="2"/>
-        <v>2.3669831037695464E-3</v>
+        <v>5.1872182912396448E-3</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3783,9 +3783,12 @@
       <c r="B154" s="1">
         <v>119159</v>
       </c>
+      <c r="C154" s="1">
+        <v>118270</v>
+      </c>
       <c r="D154" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7.4606198440738845E-3</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3795,9 +3798,12 @@
       <c r="B155" s="1">
         <v>118802</v>
       </c>
+      <c r="C155" s="1">
+        <v>118063</v>
+      </c>
       <c r="D155" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6.2204339994276188E-3</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3807,9 +3813,12 @@
       <c r="B156" s="1">
         <v>116434</v>
       </c>
+      <c r="C156" s="1">
+        <v>115355</v>
+      </c>
       <c r="D156" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>9.2670525791435487E-3</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3819,9 +3828,12 @@
       <c r="B157" s="1">
         <v>119454</v>
       </c>
+      <c r="C157" s="1">
+        <v>118572</v>
+      </c>
       <c r="D157" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7.383595358882917E-3</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3831,9 +3843,12 @@
       <c r="B158" s="1">
         <v>119749</v>
       </c>
+      <c r="C158" s="1">
+        <v>119139</v>
+      </c>
       <c r="D158" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5.0939882587746031E-3</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3843,9 +3858,12 @@
       <c r="B159" s="1">
         <v>118288</v>
       </c>
+      <c r="C159" s="1">
+        <v>117480</v>
+      </c>
       <c r="D159" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6.8307858785337482E-3</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3855,9 +3873,12 @@
       <c r="B160" s="1">
         <v>117779</v>
       </c>
+      <c r="C160" s="1">
+        <v>116904</v>
+      </c>
       <c r="D160" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7.4291681878772952E-3</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3867,9 +3888,12 @@
       <c r="B161" s="1">
         <v>119125</v>
       </c>
+      <c r="C161" s="1">
+        <v>118028</v>
+      </c>
       <c r="D161" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>9.2088142707240292E-3</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3879,9 +3903,12 @@
       <c r="B162" s="1">
         <v>217318</v>
       </c>
+      <c r="C162" s="1">
+        <v>216414</v>
+      </c>
       <c r="D162" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.1598026854655391E-3</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3891,9 +3918,12 @@
       <c r="B163" s="1">
         <v>219022</v>
       </c>
+      <c r="C163" s="1">
+        <v>217799</v>
+      </c>
       <c r="D163" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5.5839139447178823E-3</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3903,9 +3933,12 @@
       <c r="B164" s="1">
         <v>217772</v>
       </c>
+      <c r="C164" s="1">
+        <v>216809</v>
+      </c>
       <c r="D164" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.4220560953657957E-3</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3915,9 +3948,12 @@
       <c r="B165" s="1">
         <v>216802</v>
       </c>
+      <c r="C165" s="1">
+        <v>216375</v>
+      </c>
       <c r="D165" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.9695390263927454E-3</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3927,9 +3963,12 @@
       <c r="B166" s="1">
         <v>213809</v>
       </c>
+      <c r="C166" s="1">
+        <v>212714</v>
+      </c>
       <c r="D166" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5.1213933931686696E-3</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3939,9 +3978,12 @@
       <c r="B167" s="1">
         <v>215013</v>
       </c>
+      <c r="C167" s="1">
+        <v>213816</v>
+      </c>
       <c r="D167" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5.5671052447991516E-3</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3951,9 +3993,12 @@
       <c r="B168" s="1">
         <v>217896</v>
       </c>
+      <c r="C168" s="1">
+        <v>217089</v>
+      </c>
       <c r="D168" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.7036017182509088E-3</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3963,9 +4008,12 @@
       <c r="B169" s="1">
         <v>219949</v>
       </c>
+      <c r="C169" s="1">
+        <v>219148</v>
+      </c>
       <c r="D169" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.6417533155413302E-3</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3975,9 +4023,12 @@
       <c r="B170" s="1">
         <v>214332</v>
       </c>
+      <c r="C170" s="1">
+        <v>213129</v>
+      </c>
       <c r="D170" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5.6127876378702203E-3</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3987,9 +4038,12 @@
       <c r="B171" s="1">
         <v>220833</v>
       </c>
+      <c r="C171" s="1">
+        <v>220081</v>
+      </c>
       <c r="D171" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.4052881589255227E-3</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3999,9 +4053,12 @@
       <c r="B172" s="1">
         <v>304344</v>
       </c>
+      <c r="C172" s="1">
+        <v>303626</v>
+      </c>
       <c r="D172" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.3591725153116212E-3</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -4011,9 +4068,12 @@
       <c r="B173" s="1">
         <v>302332</v>
       </c>
+      <c r="C173" s="1">
+        <v>301811</v>
+      </c>
       <c r="D173" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.7232711059365202E-3</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -4023,9 +4083,12 @@
       <c r="B174" s="1">
         <v>302354</v>
       </c>
+      <c r="C174" s="1">
+        <v>301895</v>
+      </c>
       <c r="D174" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5180880689522878E-3</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -4035,9 +4098,12 @@
       <c r="B175" s="1">
         <v>300743</v>
       </c>
+      <c r="C175" s="1">
+        <v>300423</v>
+      </c>
       <c r="D175" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0640314155275434E-3</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -4047,9 +4113,12 @@
       <c r="B176" s="1">
         <v>304344</v>
       </c>
+      <c r="C176" s="1">
+        <v>304011</v>
+      </c>
       <c r="D176" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0941566122545541E-3</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -4059,9 +4128,12 @@
       <c r="B177" s="1">
         <v>301730</v>
       </c>
+      <c r="C177" s="1">
+        <v>301042</v>
+      </c>
       <c r="D177" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.2801842707055979E-3</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -4071,9 +4143,12 @@
       <c r="B178" s="1">
         <v>304949</v>
       </c>
+      <c r="C178" s="1">
+        <v>304514</v>
+      </c>
       <c r="D178" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.4264680323595093E-3</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -4083,9 +4158,12 @@
       <c r="B179" s="1">
         <v>296437</v>
       </c>
+      <c r="C179" s="1">
+        <v>295195</v>
+      </c>
       <c r="D179" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.1897603875359684E-3</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -4095,9 +4173,12 @@
       <c r="B180" s="1">
         <v>301313</v>
       </c>
+      <c r="C180" s="1">
+        <v>300773</v>
+      </c>
       <c r="D180" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.7921563291328287E-3</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -4107,9 +4188,12 @@
       <c r="B181" s="1">
         <v>307014</v>
       </c>
+      <c r="C181" s="1">
+        <v>306622</v>
+      </c>
       <c r="D181" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.2768147380901197E-3</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -4119,9 +4203,12 @@
       <c r="B182" s="1">
         <v>21946</v>
       </c>
+      <c r="C182" s="1">
+        <v>21772</v>
+      </c>
       <c r="D182" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7.9285519001184718E-3</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -4131,9 +4218,12 @@
       <c r="B183" s="1">
         <v>21716</v>
       </c>
+      <c r="C183" s="1">
+        <v>21492</v>
+      </c>
       <c r="D183" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0314975133542089E-2</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -4143,9 +4233,12 @@
       <c r="B184" s="1">
         <v>20754</v>
       </c>
+      <c r="C184" s="1">
+        <v>20675</v>
+      </c>
       <c r="D184" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.8064951334682469E-3</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -4155,9 +4248,12 @@
       <c r="B185" s="1">
         <v>21464</v>
       </c>
+      <c r="C185" s="1">
+        <v>21411</v>
+      </c>
       <c r="D185" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.4692508386134925E-3</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -4167,9 +4263,12 @@
       <c r="B186" s="1">
         <v>21814</v>
       </c>
+      <c r="C186" s="1">
+        <v>21733</v>
+      </c>
       <c r="D186" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.7132116989089577E-3</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -4179,9 +4278,12 @@
       <c r="B187" s="1">
         <v>22176</v>
       </c>
+      <c r="C187" s="1">
+        <v>22176</v>
+      </c>
       <c r="D187" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4191,9 +4293,12 @@
       <c r="B188" s="1">
         <v>21799</v>
       </c>
+      <c r="C188" s="1">
+        <v>21699</v>
+      </c>
       <c r="D188" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.5873663929538056E-3</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4203,9 +4308,12 @@
       <c r="B189" s="1">
         <v>21397</v>
       </c>
+      <c r="C189" s="1">
+        <v>21169</v>
+      </c>
       <c r="D189" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.0655699397111744E-2</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4215,9 +4323,12 @@
       <c r="B190" s="1">
         <v>22493</v>
       </c>
+      <c r="C190" s="1">
+        <v>22386</v>
+      </c>
       <c r="D190" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.7570355221624502E-3</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4227,9 +4338,12 @@
       <c r="B191" s="1">
         <v>20983</v>
       </c>
+      <c r="C191" s="1">
+        <v>20944</v>
+      </c>
       <c r="D191" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.8586474765286184E-3</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4239,9 +4353,12 @@
       <c r="B192" s="1">
         <v>40767</v>
       </c>
+      <c r="C192" s="1">
+        <v>40575</v>
+      </c>
       <c r="D192" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>4.7096916623739788E-3</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4251,9 +4368,12 @@
       <c r="B193" s="1">
         <v>41304</v>
       </c>
+      <c r="C193" s="1">
+        <v>41199</v>
+      </c>
       <c r="D193" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5421266705403837E-3</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4263,9 +4383,12 @@
       <c r="B194" s="1">
         <v>41560</v>
       </c>
+      <c r="C194" s="1">
+        <v>41473</v>
+      </c>
       <c r="D194" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.0933589990375359E-3</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4275,9 +4398,12 @@
       <c r="B195" s="1">
         <v>41041</v>
       </c>
+      <c r="C195" s="1">
+        <v>40972</v>
+      </c>
       <c r="D195" s="2">
         <f t="shared" ref="D195:D258" si="3">(B195-C195)/B195</f>
-        <v>1</v>
+        <v>1.6812455836846081E-3</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -4287,9 +4413,12 @@
       <c r="B196" s="1">
         <v>40872</v>
       </c>
+      <c r="C196" s="1">
+        <v>40872</v>
+      </c>
       <c r="D196" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4299,9 +4428,12 @@
       <c r="B197" s="1">
         <v>41058</v>
       </c>
+      <c r="C197" s="1">
+        <v>41058</v>
+      </c>
       <c r="D197" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4311,9 +4443,12 @@
       <c r="B198" s="1">
         <v>41062</v>
       </c>
+      <c r="C198" s="1">
+        <v>40887</v>
+      </c>
       <c r="D198" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.2618479372655985E-3</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4323,9 +4458,12 @@
       <c r="B199" s="1">
         <v>42719</v>
       </c>
+      <c r="C199" s="1">
+        <v>42719</v>
+      </c>
       <c r="D199" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4335,9 +4473,12 @@
       <c r="B200" s="1">
         <v>42230</v>
       </c>
+      <c r="C200" s="1">
+        <v>42230</v>
+      </c>
       <c r="D200" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4347,9 +4488,12 @@
       <c r="B201" s="1">
         <v>41700</v>
       </c>
+      <c r="C201" s="1">
+        <v>41524</v>
+      </c>
       <c r="D201" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.2206235011990403E-3</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4359,9 +4503,12 @@
       <c r="B202" s="1">
         <v>57494</v>
       </c>
+      <c r="C202" s="1">
+        <v>57494</v>
+      </c>
       <c r="D202" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4371,9 +4518,12 @@
       <c r="B203" s="1">
         <v>60027</v>
       </c>
+      <c r="C203" s="1">
+        <v>59997</v>
+      </c>
       <c r="D203" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.9977510120445795E-4</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4383,9 +4533,12 @@
       <c r="B204" s="1">
         <v>58025</v>
       </c>
+      <c r="C204" s="1">
+        <v>57977</v>
+      </c>
       <c r="D204" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>8.2722964239551912E-4</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4395,9 +4548,12 @@
       <c r="B205" s="1">
         <v>60776</v>
       </c>
+      <c r="C205" s="1">
+        <v>60776</v>
+      </c>
       <c r="D205" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4407,9 +4563,12 @@
       <c r="B206" s="1">
         <v>58884</v>
       </c>
+      <c r="C206" s="1">
+        <v>58816</v>
+      </c>
       <c r="D206" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>1.1548128523877453E-3</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4419,9 +4578,12 @@
       <c r="B207" s="1">
         <v>60011</v>
       </c>
+      <c r="C207" s="1">
+        <v>59830</v>
+      </c>
       <c r="D207" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3.0161137124860441E-3</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4431,9 +4593,12 @@
       <c r="B208" s="1">
         <v>58132</v>
       </c>
+      <c r="C208" s="1">
+        <v>58132</v>
+      </c>
       <c r="D208" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4443,9 +4608,12 @@
       <c r="B209" s="1">
         <v>59064</v>
       </c>
+      <c r="C209" s="1">
+        <v>58944</v>
+      </c>
       <c r="D209" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.0316944331572532E-3</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4455,9 +4623,12 @@
       <c r="B210" s="1">
         <v>58975</v>
       </c>
+      <c r="C210" s="1">
+        <v>58856</v>
+      </c>
       <c r="D210" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.0178041543026707E-3</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4467,9 +4638,12 @@
       <c r="B211" s="1">
         <v>60603</v>
       </c>
+      <c r="C211" s="1">
+        <v>60574</v>
+      </c>
       <c r="D211" s="2">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>4.7852416547035625E-4</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4480,11 +4654,11 @@
         <v>56693</v>
       </c>
       <c r="C212">
-        <v>56374</v>
+        <v>56572</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="3"/>
-        <v>5.6267969590602018E-3</v>
+        <v>2.1343022948159384E-3</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4495,11 +4669,11 @@
         <v>58318</v>
       </c>
       <c r="C213">
-        <v>57962</v>
+        <v>58064</v>
       </c>
       <c r="D213" s="2">
         <f t="shared" si="3"/>
-        <v>6.1044617442299115E-3</v>
+        <v>4.3554305703213418E-3</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4510,11 +4684,11 @@
         <v>56553</v>
       </c>
       <c r="C214">
-        <v>56291</v>
+        <v>55722</v>
       </c>
       <c r="D214" s="2">
         <f t="shared" si="3"/>
-        <v>4.6328223082771911E-3</v>
+        <v>1.4694180680070022E-2</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4525,11 +4699,11 @@
         <v>56863</v>
       </c>
       <c r="C215">
-        <v>56563</v>
+        <v>58451</v>
       </c>
       <c r="D215" s="2">
         <f t="shared" si="3"/>
-        <v>5.2758384186553644E-3</v>
+        <v>-2.7926771362749063E-2</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
